--- a/forms/app/covid_rdt.xlsx
+++ b/forms/app/covid_rdt.xlsx
@@ -248,9 +248,6 @@
     <t>label::es</t>
   </si>
   <si>
-    <t>temp_infra_note</t>
-  </si>
-  <si>
     <t>label::fr</t>
   </si>
   <si>
@@ -675,6 +672,9 @@
   </si>
   <si>
     <t>patient_household</t>
+  </si>
+  <si>
+    <t>rdt_note</t>
   </si>
 </sst>
 </file>
@@ -1262,7 +1262,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomRight" activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1294,7 +1294,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E1" s="23" t="s">
         <v>12</v>
@@ -1868,7 +1868,7 @@
         <v>58</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C16" s="22" t="s">
         <v>30</v>
@@ -1904,7 +1904,7 @@
         <v>58</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C17" s="22" t="s">
         <v>30</v>
@@ -1940,7 +1940,7 @@
         <v>58</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C18" s="22" t="s">
         <v>30</v>
@@ -2006,13 +2006,13 @@
         <v>68</v>
       </c>
       <c r="B20" s="35" t="s">
-        <v>70</v>
+        <v>212</v>
       </c>
       <c r="C20" s="36" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D20" s="36" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E20" s="37"/>
       <c r="F20" s="37"/>
@@ -2041,16 +2041,16 @@
     </row>
     <row r="21" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="B21" s="35" t="s">
+      <c r="C21" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="C21" s="36" t="s">
-        <v>86</v>
-      </c>
       <c r="D21" s="36" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E21" s="37"/>
       <c r="F21" s="37"/>
@@ -2081,16 +2081,16 @@
     </row>
     <row r="22" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="B22" s="35" t="s">
+      <c r="C22" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="C22" s="36" t="s">
-        <v>93</v>
-      </c>
       <c r="D22" s="36" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E22" s="37"/>
       <c r="F22" s="37"/>
@@ -2098,10 +2098,10 @@
       <c r="H22" s="36"/>
       <c r="I22" s="36"/>
       <c r="J22" s="36" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K22" s="36" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L22" s="37"/>
       <c r="M22" s="37"/>
@@ -2126,13 +2126,13 @@
         <v>68</v>
       </c>
       <c r="B23" s="35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C23" s="36" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D23" s="36" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E23" s="37"/>
       <c r="F23" s="37"/>
@@ -2161,16 +2161,16 @@
     </row>
     <row r="24" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B24" s="35" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C24" s="36" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D24" s="36" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E24" s="36"/>
       <c r="F24" s="37"/>
@@ -2201,16 +2201,16 @@
     </row>
     <row r="25" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B25" s="35" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C25" s="36" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D25" s="36" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E25" s="37"/>
       <c r="F25" s="37"/>
@@ -2218,10 +2218,10 @@
       <c r="H25" s="36"/>
       <c r="I25" s="36"/>
       <c r="J25" s="36" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K25" s="36" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L25" s="37"/>
       <c r="M25" s="37"/>
@@ -2243,19 +2243,19 @@
     </row>
     <row r="26" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="B26" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="B26" s="35" t="s">
+      <c r="C26" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="C26" s="36" t="s">
-        <v>118</v>
-      </c>
       <c r="D26" s="36" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E26" s="36" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F26" s="37"/>
       <c r="G26" s="37"/>
@@ -2283,23 +2283,23 @@
     </row>
     <row r="27" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="B27" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="B27" s="35" t="s">
+      <c r="C27" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="C27" s="36" t="s">
-        <v>124</v>
-      </c>
       <c r="D27" s="36" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E27" s="36" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F27" s="37"/>
       <c r="G27" s="36" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H27" s="37"/>
       <c r="I27" s="37"/>
@@ -2325,16 +2325,16 @@
     </row>
     <row r="28" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="35" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B28" s="35" t="s">
         <v>23</v>
       </c>
       <c r="C28" s="36" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D28" s="36" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E28" s="37"/>
       <c r="F28" s="37"/>
@@ -3588,10 +3588,10 @@
         <v>11</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3599,10 +3599,10 @@
         <v>11</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>204</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3610,21 +3610,21 @@
         <v>11</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>206</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>51</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -3703,7 +3703,7 @@
       </c>
       <c r="C2" s="9">
         <f ca="1">NOW()</f>
-        <v>44121.570826041665</v>
+        <v>44121.615853935182</v>
       </c>
       <c r="D2" s="10"/>
       <c r="E2" s="10" t="s">
@@ -3782,7 +3782,7 @@
         <v>69</v>
       </c>
       <c r="I1" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
@@ -3801,13 +3801,13 @@
     </row>
     <row r="2" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="C2" s="18" t="s">
         <v>73</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>74</v>
       </c>
       <c r="D2" s="18"/>
       <c r="E2" s="18"/>
@@ -3832,13 +3832,13 @@
     </row>
     <row r="3" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B3" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="18" t="s">
         <v>75</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>76</v>
       </c>
       <c r="D3" s="18"/>
       <c r="E3" s="18"/>
@@ -3888,13 +3888,13 @@
     </row>
     <row r="5" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="C5" s="18" t="s">
         <v>78</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>79</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
@@ -3919,13 +3919,13 @@
     </row>
     <row r="6" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B6" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="18" t="s">
         <v>80</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>81</v>
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
@@ -3950,13 +3950,13 @@
     </row>
     <row r="7" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B7" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="18" t="s">
         <v>82</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>83</v>
       </c>
       <c r="D7" s="18"/>
       <c r="E7" s="18"/>
@@ -3981,13 +3981,13 @@
     </row>
     <row r="8" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B8" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="18" t="s">
         <v>87</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>88</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="18"/>
@@ -4012,13 +4012,13 @@
     </row>
     <row r="9" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B9" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="18" t="s">
         <v>89</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>90</v>
       </c>
       <c r="D9" s="18"/>
       <c r="E9" s="18"/>
@@ -4068,13 +4068,13 @@
     </row>
     <row r="11" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="B11" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="B11" s="18" t="s">
-        <v>95</v>
-      </c>
       <c r="C11" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D11" s="18"/>
       <c r="E11" s="18"/>
@@ -4099,13 +4099,13 @@
     </row>
     <row r="12" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D12" s="18"/>
       <c r="E12" s="18"/>
@@ -4130,13 +4130,13 @@
     </row>
     <row r="13" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B13" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" s="18" t="s">
         <v>102</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>103</v>
       </c>
       <c r="D13" s="18"/>
       <c r="E13" s="18"/>
@@ -4161,13 +4161,13 @@
     </row>
     <row r="14" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B14" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" s="18" t="s">
         <v>104</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>105</v>
       </c>
       <c r="D14" s="18"/>
       <c r="E14" s="18"/>
@@ -4192,13 +4192,13 @@
     </row>
     <row r="15" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D15" s="18"/>
       <c r="E15" s="18"/>
@@ -4223,13 +4223,13 @@
     </row>
     <row r="16" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B16" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="C16" s="18" t="s">
         <v>109</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>110</v>
       </c>
       <c r="D16" s="18"/>
       <c r="E16" s="18"/>
@@ -4279,13 +4279,13 @@
     </row>
     <row r="18" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D18" s="18"/>
       <c r="E18" s="18"/>
@@ -4310,13 +4310,13 @@
     </row>
     <row r="19" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D19" s="18"/>
       <c r="E19" s="18"/>
@@ -4341,13 +4341,13 @@
     </row>
     <row r="20" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B20" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" s="18" t="s">
         <v>102</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>103</v>
       </c>
       <c r="D20" s="18"/>
       <c r="E20" s="18"/>
@@ -4372,13 +4372,13 @@
     </row>
     <row r="21" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B21" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" s="18" t="s">
         <v>104</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>105</v>
       </c>
       <c r="D21" s="18"/>
       <c r="E21" s="18"/>
@@ -4403,13 +4403,13 @@
     </row>
     <row r="22" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B22" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="C22" s="18" t="s">
         <v>109</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>110</v>
       </c>
       <c r="D22" s="18"/>
       <c r="E22" s="18"/>
@@ -4434,13 +4434,13 @@
     </row>
     <row r="23" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B23" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="C23" s="18" t="s">
         <v>114</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>115</v>
       </c>
       <c r="D23" s="18"/>
       <c r="E23" s="18"/>
@@ -4490,13 +4490,13 @@
     </row>
     <row r="25" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="B25" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="C25" s="18" t="s">
         <v>120</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>121</v>
       </c>
       <c r="D25" s="18"/>
       <c r="E25" s="18"/>
@@ -4521,13 +4521,13 @@
     </row>
     <row r="26" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B26" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C26" s="18" t="s">
         <v>125</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>126</v>
       </c>
       <c r="D26" s="18"/>
       <c r="E26" s="18"/>
@@ -4552,13 +4552,13 @@
     </row>
     <row r="27" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B27" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="C27" s="18" t="s">
         <v>128</v>
-      </c>
-      <c r="C27" s="18" t="s">
-        <v>129</v>
       </c>
       <c r="D27" s="18"/>
       <c r="E27" s="18"/>
@@ -4583,13 +4583,13 @@
     </row>
     <row r="28" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B28" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="C28" s="18" t="s">
         <v>131</v>
-      </c>
-      <c r="C28" s="18" t="s">
-        <v>132</v>
       </c>
       <c r="D28" s="18"/>
       <c r="E28" s="18"/>
@@ -4614,7 +4614,7 @@
     </row>
     <row r="29" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B29" s="18" t="s">
         <v>48</v>
@@ -4670,13 +4670,13 @@
     </row>
     <row r="31" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="B31" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="B31" s="18" t="s">
-        <v>134</v>
-      </c>
       <c r="C31" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D31" s="18"/>
       <c r="E31" s="18"/>
@@ -4701,13 +4701,13 @@
     </row>
     <row r="32" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D32" s="18"/>
       <c r="E32" s="18"/>
@@ -4757,115 +4757,115 @@
     </row>
     <row r="34" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B34" t="str">
         <f t="shared" ref="B34:B42" si="0">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C34, "(", ""), ")", "")), " ", "_")</f>
         <v>combined_oral_contraceptives</v>
       </c>
       <c r="C34" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="35" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B35" t="str">
         <f t="shared" si="0"/>
         <v>progesterone_only_pills</v>
       </c>
       <c r="C35" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B36" t="str">
         <f t="shared" si="0"/>
         <v>injectibles</v>
       </c>
       <c r="C36" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="37" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B37" t="str">
         <f t="shared" si="0"/>
         <v>implants_1_rod</v>
       </c>
       <c r="C37" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B38" t="str">
         <f t="shared" si="0"/>
         <v>implants_2_rods</v>
       </c>
       <c r="C38" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="39" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B39" t="str">
         <f t="shared" si="0"/>
         <v>iud</v>
       </c>
       <c r="C39" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="40" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B40" t="str">
         <f t="shared" si="0"/>
         <v>condoms</v>
       </c>
       <c r="C40" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="41" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B41" t="str">
         <f t="shared" si="0"/>
         <v>tubal_ligation</v>
       </c>
       <c r="C41" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="42" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B42" t="str">
         <f t="shared" si="0"/>
         <v>cycle_beads</v>
       </c>
       <c r="C42" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="43" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B43" t="s">
         <v>48</v>
@@ -4882,26 +4882,26 @@
     </row>
     <row r="45" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B45" t="str">
         <f t="shared" si="1"/>
         <v>wants_to_get_pregnant</v>
       </c>
       <c r="C45" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="46" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B46" t="str">
         <f t="shared" si="1"/>
         <v>did_not_want_fp</v>
       </c>
       <c r="C46" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="47" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4912,13 +4912,13 @@
     </row>
     <row r="48" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="B48" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="B48" s="19" t="s">
+      <c r="C48" s="19" t="s">
         <v>150</v>
-      </c>
-      <c r="C48" s="19" t="s">
-        <v>151</v>
       </c>
       <c r="D48" s="19"/>
       <c r="E48" s="19"/>
@@ -4943,13 +4943,13 @@
     </row>
     <row r="49" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B49" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="C49" s="19" t="s">
         <v>152</v>
-      </c>
-      <c r="C49" s="19" t="s">
-        <v>153</v>
       </c>
       <c r="D49" s="19"/>
       <c r="E49" s="19"/>
@@ -4975,62 +4975,62 @@
     <row r="50" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="51" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
+        <v>153</v>
+      </c>
+      <c r="B51" t="s">
         <v>154</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
         <v>155</v>
-      </c>
-      <c r="C51" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="52" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B52" t="s">
+        <v>156</v>
+      </c>
+      <c r="C52" t="s">
         <v>157</v>
-      </c>
-      <c r="C52" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="53" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B53" t="s">
+        <v>158</v>
+      </c>
+      <c r="C53" t="s">
         <v>159</v>
-      </c>
-      <c r="C53" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="54" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B54" t="s">
+        <v>160</v>
+      </c>
+      <c r="C54" t="s">
         <v>161</v>
-      </c>
-      <c r="C54" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="55" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B55" t="s">
+        <v>162</v>
+      </c>
+      <c r="C55" t="s">
         <v>163</v>
-      </c>
-      <c r="C55" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="56" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B56" t="s">
         <v>48</v>
@@ -5042,40 +5042,40 @@
     <row r="57" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="58" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="B58" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="B58" s="19" t="s">
+      <c r="C58" s="19" t="s">
         <v>166</v>
-      </c>
-      <c r="C58" s="19" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="59" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B59" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="C59" s="19" t="s">
         <v>168</v>
-      </c>
-      <c r="C59" s="19" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="60" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B60" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="C60" s="19" t="s">
         <v>170</v>
-      </c>
-      <c r="C60" s="19" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="61" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B61" s="19" t="s">
         <v>48</v>
@@ -5087,108 +5087,108 @@
     <row r="62" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="63" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B63" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="C63" s="19" t="s">
         <v>173</v>
-      </c>
-      <c r="C63" s="19" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="64" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B64" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C64" s="19" t="s">
         <v>175</v>
-      </c>
-      <c r="C64" s="19" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B65" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C65" s="19" t="s">
         <v>177</v>
-      </c>
-      <c r="C65" s="19" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B66" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C66" s="19" t="s">
         <v>179</v>
-      </c>
-      <c r="C66" s="19" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B67" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C67" s="19" t="s">
         <v>181</v>
-      </c>
-      <c r="C67" s="19" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="69" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
+        <v>182</v>
+      </c>
+      <c r="B69" t="s">
         <v>183</v>
       </c>
-      <c r="B69" t="s">
+      <c r="C69" t="s">
         <v>184</v>
-      </c>
-      <c r="C69" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B70" t="s">
+        <v>185</v>
+      </c>
+      <c r="C70" t="s">
         <v>186</v>
-      </c>
-      <c r="C70" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="72" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
+        <v>187</v>
+      </c>
+      <c r="B72" t="s">
         <v>188</v>
       </c>
-      <c r="B72" t="s">
-        <v>189</v>
-      </c>
       <c r="C72" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B73" t="s">
+        <v>189</v>
+      </c>
+      <c r="C73" t="s">
         <v>190</v>
-      </c>
-      <c r="C73" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B74" t="s">
         <v>48</v>

--- a/forms/app/covid_rdt.xlsx
+++ b/forms/app/covid_rdt.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="211">
   <si>
     <t>form_title</t>
   </si>
@@ -213,12 +213,6 @@
   </si>
   <si>
     <t>calculate</t>
-  </si>
-  <si>
-    <t>patient_uuid</t>
-  </si>
-  <si>
-    <t>../inputs/contact/_id</t>
   </si>
   <si>
     <t>label::hi</t>
@@ -1256,13 +1250,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AB67"/>
+  <dimension ref="A1:AB66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A22" sqref="A22"/>
+      <selection pane="bottomRight" activeCell="A15" sqref="A15:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1294,7 +1288,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E1" s="23" t="s">
         <v>12</v>
@@ -1754,7 +1748,7 @@
         <v>58</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C13" s="22" t="s">
         <v>30</v>
@@ -1768,7 +1762,7 @@
       <c r="J13" s="22"/>
       <c r="K13" s="22"/>
       <c r="L13" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M13" s="22"/>
       <c r="N13" s="22"/>
@@ -1792,7 +1786,7 @@
         <v>58</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="C14" s="22" t="s">
         <v>30</v>
@@ -1830,7 +1824,7 @@
         <v>58</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>64</v>
+        <v>207</v>
       </c>
       <c r="C15" s="22" t="s">
         <v>30</v>
@@ -1843,9 +1837,7 @@
       <c r="I15" s="22"/>
       <c r="J15" s="22"/>
       <c r="K15" s="22"/>
-      <c r="L15" s="22" t="s">
-        <v>65</v>
-      </c>
+      <c r="L15" s="22"/>
       <c r="M15" s="22"/>
       <c r="N15" s="22"/>
       <c r="O15" s="22"/>
@@ -1868,7 +1860,7 @@
         <v>58</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C16" s="22" t="s">
         <v>30</v>
@@ -1904,7 +1896,7 @@
         <v>58</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C17" s="22" t="s">
         <v>30</v>
@@ -1936,83 +1928,85 @@
       <c r="AB17" s="34"/>
     </row>
     <row r="18" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>211</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="22"/>
-      <c r="P18" s="22"/>
-      <c r="Q18" s="22"/>
-      <c r="R18" s="22"/>
-      <c r="S18" s="22"/>
-      <c r="T18" s="34"/>
-      <c r="U18" s="34"/>
-      <c r="V18" s="34"/>
-      <c r="W18" s="34"/>
-      <c r="X18" s="34"/>
-      <c r="Y18" s="34"/>
-      <c r="Z18" s="34"/>
-      <c r="AA18" s="34"/>
-      <c r="AB18" s="34"/>
+      <c r="A18" s="32"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="32"/>
+      <c r="M18" s="32"/>
+      <c r="N18" s="32"/>
+      <c r="O18" s="32"/>
+      <c r="P18" s="32"/>
+      <c r="Q18" s="32"/>
+      <c r="R18" s="32"/>
+      <c r="S18" s="32"/>
+      <c r="T18" s="33"/>
+      <c r="U18" s="33"/>
+      <c r="V18" s="33"/>
+      <c r="W18" s="33"/>
+      <c r="X18" s="33"/>
+      <c r="Y18" s="33"/>
+      <c r="Z18" s="33"/>
+      <c r="AA18" s="33"/>
+      <c r="AB18" s="33"/>
     </row>
     <row r="19" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="32"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="32"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="32"/>
-      <c r="O19" s="32"/>
-      <c r="P19" s="32"/>
-      <c r="Q19" s="32"/>
-      <c r="R19" s="32"/>
-      <c r="S19" s="32"/>
-      <c r="T19" s="33"/>
-      <c r="U19" s="33"/>
-      <c r="V19" s="33"/>
-      <c r="W19" s="33"/>
-      <c r="X19" s="33"/>
-      <c r="Y19" s="33"/>
-      <c r="Z19" s="33"/>
-      <c r="AA19" s="33"/>
-      <c r="AB19" s="33"/>
+      <c r="A19" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="35" t="s">
+        <v>210</v>
+      </c>
+      <c r="C19" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="D19" s="36" t="s">
+        <v>191</v>
+      </c>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="37"/>
+      <c r="N19" s="37"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="37"/>
+      <c r="Q19" s="37"/>
+      <c r="R19" s="37"/>
+      <c r="S19" s="37"/>
+      <c r="T19" s="38"/>
+      <c r="U19" s="38"/>
+      <c r="V19" s="38"/>
+      <c r="W19" s="38"/>
+      <c r="X19" s="38"/>
+      <c r="Y19" s="38"/>
+      <c r="Z19" s="38"/>
+      <c r="AA19" s="38"/>
+      <c r="AB19" s="38"/>
     </row>
     <row r="20" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="35" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="B20" s="35" t="s">
-        <v>212</v>
+        <v>82</v>
       </c>
       <c r="C20" s="36" t="s">
-        <v>191</v>
+        <v>83</v>
       </c>
       <c r="D20" s="36" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E20" s="37"/>
       <c r="F20" s="37"/>
@@ -2024,7 +2018,9 @@
       <c r="L20" s="37"/>
       <c r="M20" s="37"/>
       <c r="N20" s="37"/>
-      <c r="O20" s="36"/>
+      <c r="O20" s="36" t="s">
+        <v>51</v>
+      </c>
       <c r="P20" s="37"/>
       <c r="Q20" s="37"/>
       <c r="R20" s="37"/>
@@ -2041,30 +2037,32 @@
     </row>
     <row r="21" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="35" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B21" s="35" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C21" s="36" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D21" s="36" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E21" s="37"/>
       <c r="F21" s="37"/>
       <c r="G21" s="37"/>
       <c r="H21" s="36"/>
       <c r="I21" s="36"/>
-      <c r="J21" s="37"/>
-      <c r="K21" s="37"/>
+      <c r="J21" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="K21" s="36" t="s">
+        <v>95</v>
+      </c>
       <c r="L21" s="37"/>
       <c r="M21" s="37"/>
       <c r="N21" s="37"/>
-      <c r="O21" s="36" t="s">
-        <v>51</v>
-      </c>
+      <c r="O21" s="36"/>
       <c r="P21" s="37"/>
       <c r="Q21" s="37"/>
       <c r="R21" s="37"/>
@@ -2081,28 +2079,24 @@
     </row>
     <row r="22" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="35" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="C22" s="36" t="s">
-        <v>92</v>
+        <v>190</v>
       </c>
       <c r="D22" s="36" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E22" s="37"/>
       <c r="F22" s="37"/>
       <c r="G22" s="37"/>
       <c r="H22" s="36"/>
       <c r="I22" s="36"/>
-      <c r="J22" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="K22" s="36" t="s">
-        <v>97</v>
-      </c>
+      <c r="J22" s="37"/>
+      <c r="K22" s="37"/>
       <c r="L22" s="37"/>
       <c r="M22" s="37"/>
       <c r="N22" s="37"/>
@@ -2123,107 +2117,109 @@
     </row>
     <row r="23" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="35" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="B23" s="35" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C23" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="D23" s="36" t="s">
         <v>192</v>
       </c>
-      <c r="D23" s="36" t="s">
-        <v>196</v>
-      </c>
-      <c r="E23" s="37"/>
+      <c r="E23" s="36"/>
       <c r="F23" s="37"/>
       <c r="G23" s="37"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
       <c r="J23" s="37"/>
       <c r="K23" s="37"/>
-      <c r="L23" s="37"/>
+      <c r="L23" s="36"/>
       <c r="M23" s="37"/>
       <c r="N23" s="37"/>
-      <c r="O23" s="36"/>
+      <c r="O23" s="36" t="s">
+        <v>52</v>
+      </c>
       <c r="P23" s="37"/>
       <c r="Q23" s="37"/>
       <c r="R23" s="37"/>
       <c r="S23" s="37"/>
-      <c r="T23" s="38"/>
-      <c r="U23" s="38"/>
-      <c r="V23" s="38"/>
-      <c r="W23" s="38"/>
-      <c r="X23" s="38"/>
-      <c r="Y23" s="38"/>
-      <c r="Z23" s="38"/>
-      <c r="AA23" s="38"/>
-      <c r="AB23" s="38"/>
+      <c r="T23" s="36"/>
+      <c r="U23" s="36"/>
+      <c r="V23" s="36"/>
+      <c r="W23" s="36"/>
+      <c r="X23" s="36"/>
+      <c r="Y23" s="36"/>
+      <c r="Z23" s="36"/>
+      <c r="AA23" s="36"/>
+      <c r="AB23" s="36"/>
     </row>
     <row r="24" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="35" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B24" s="35" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C24" s="36" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D24" s="36" t="s">
-        <v>194</v>
-      </c>
-      <c r="E24" s="36"/>
+        <v>193</v>
+      </c>
+      <c r="E24" s="37"/>
       <c r="F24" s="37"/>
       <c r="G24" s="37"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="37"/>
-      <c r="K24" s="37"/>
-      <c r="L24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="K24" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="L24" s="37"/>
       <c r="M24" s="37"/>
       <c r="N24" s="37"/>
-      <c r="O24" s="36" t="s">
-        <v>52</v>
-      </c>
+      <c r="O24" s="37"/>
       <c r="P24" s="37"/>
       <c r="Q24" s="37"/>
       <c r="R24" s="37"/>
       <c r="S24" s="37"/>
-      <c r="T24" s="36"/>
-      <c r="U24" s="36"/>
-      <c r="V24" s="36"/>
-      <c r="W24" s="36"/>
-      <c r="X24" s="36"/>
-      <c r="Y24" s="36"/>
-      <c r="Z24" s="36"/>
-      <c r="AA24" s="36"/>
-      <c r="AB24" s="36"/>
+      <c r="T24" s="38"/>
+      <c r="U24" s="38"/>
+      <c r="V24" s="38"/>
+      <c r="W24" s="38"/>
+      <c r="X24" s="38"/>
+      <c r="Y24" s="38"/>
+      <c r="Z24" s="38"/>
+      <c r="AA24" s="38"/>
+      <c r="AB24" s="38"/>
     </row>
     <row r="25" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="35" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="B25" s="35" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C25" s="36" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="D25" s="36" t="s">
-        <v>195</v>
-      </c>
-      <c r="E25" s="37"/>
+        <v>197</v>
+      </c>
+      <c r="E25" s="36" t="s">
+        <v>70</v>
+      </c>
       <c r="F25" s="37"/>
       <c r="G25" s="37"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="K25" s="36" t="s">
-        <v>97</v>
-      </c>
-      <c r="L25" s="37"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="37"/>
+      <c r="L25" s="36"/>
       <c r="M25" s="37"/>
       <c r="N25" s="37"/>
       <c r="O25" s="37"/>
@@ -2231,39 +2227,41 @@
       <c r="Q25" s="37"/>
       <c r="R25" s="37"/>
       <c r="S25" s="37"/>
-      <c r="T25" s="38"/>
-      <c r="U25" s="38"/>
-      <c r="V25" s="38"/>
-      <c r="W25" s="38"/>
-      <c r="X25" s="38"/>
-      <c r="Y25" s="38"/>
-      <c r="Z25" s="38"/>
-      <c r="AA25" s="38"/>
-      <c r="AB25" s="38"/>
+      <c r="T25" s="36"/>
+      <c r="U25" s="36"/>
+      <c r="V25" s="36"/>
+      <c r="W25" s="36"/>
+      <c r="X25" s="36"/>
+      <c r="Y25" s="36"/>
+      <c r="Z25" s="36"/>
+      <c r="AA25" s="36"/>
+      <c r="AB25" s="36"/>
     </row>
     <row r="26" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="35" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B26" s="35" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C26" s="36" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D26" s="36" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E26" s="36" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
+      <c r="G26" s="36" t="s">
+        <v>124</v>
+      </c>
       <c r="H26" s="37"/>
       <c r="I26" s="37"/>
       <c r="J26" s="37"/>
       <c r="K26" s="37"/>
-      <c r="L26" s="36"/>
+      <c r="L26" s="37"/>
       <c r="M26" s="37"/>
       <c r="N26" s="37"/>
       <c r="O26" s="37"/>
@@ -2271,36 +2269,32 @@
       <c r="Q26" s="37"/>
       <c r="R26" s="37"/>
       <c r="S26" s="37"/>
-      <c r="T26" s="36"/>
-      <c r="U26" s="36"/>
-      <c r="V26" s="36"/>
-      <c r="W26" s="36"/>
-      <c r="X26" s="36"/>
-      <c r="Y26" s="36"/>
-      <c r="Z26" s="36"/>
-      <c r="AA26" s="36"/>
-      <c r="AB26" s="36"/>
+      <c r="T26" s="38"/>
+      <c r="U26" s="38"/>
+      <c r="V26" s="38"/>
+      <c r="W26" s="38"/>
+      <c r="X26" s="38"/>
+      <c r="Y26" s="38"/>
+      <c r="Z26" s="38"/>
+      <c r="AA26" s="38"/>
+      <c r="AB26" s="38"/>
     </row>
     <row r="27" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="35" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B27" s="35" t="s">
-        <v>122</v>
+        <v>23</v>
       </c>
       <c r="C27" s="36" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D27" s="36" t="s">
-        <v>197</v>
-      </c>
-      <c r="E27" s="36" t="s">
-        <v>72</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="E27" s="37"/>
       <c r="F27" s="37"/>
-      <c r="G27" s="36" t="s">
-        <v>126</v>
-      </c>
+      <c r="G27" s="37"/>
       <c r="H27" s="37"/>
       <c r="I27" s="37"/>
       <c r="J27" s="37"/>
@@ -2324,18 +2318,10 @@
       <c r="AB27" s="38"/>
     </row>
     <row r="28" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="35" t="s">
-        <v>121</v>
-      </c>
-      <c r="B28" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="C28" s="36" t="s">
-        <v>129</v>
-      </c>
-      <c r="D28" s="36" t="s">
-        <v>198</v>
-      </c>
+      <c r="A28" s="35"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
       <c r="E28" s="37"/>
       <c r="F28" s="37"/>
       <c r="G28" s="37"/>
@@ -2351,15 +2337,15 @@
       <c r="Q28" s="37"/>
       <c r="R28" s="37"/>
       <c r="S28" s="37"/>
-      <c r="T28" s="38"/>
-      <c r="U28" s="38"/>
-      <c r="V28" s="38"/>
-      <c r="W28" s="38"/>
-      <c r="X28" s="38"/>
-      <c r="Y28" s="38"/>
-      <c r="Z28" s="38"/>
-      <c r="AA28" s="38"/>
-      <c r="AB28" s="38"/>
+      <c r="T28" s="36"/>
+      <c r="U28" s="36"/>
+      <c r="V28" s="36"/>
+      <c r="W28" s="36"/>
+      <c r="X28" s="36"/>
+      <c r="Y28" s="36"/>
+      <c r="Z28" s="36"/>
+      <c r="AA28" s="36"/>
+      <c r="AB28" s="36"/>
     </row>
     <row r="29" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="35"/>
@@ -2368,7 +2354,7 @@
       <c r="D29" s="36"/>
       <c r="E29" s="37"/>
       <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
+      <c r="G29" s="36"/>
       <c r="H29" s="37"/>
       <c r="I29" s="37"/>
       <c r="J29" s="37"/>
@@ -2423,12 +2409,12 @@
     </row>
     <row r="31" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="35"/>
-      <c r="B31" s="35"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="37"/>
       <c r="E31" s="37"/>
       <c r="F31" s="37"/>
-      <c r="G31" s="36"/>
+      <c r="G31" s="37"/>
       <c r="H31" s="37"/>
       <c r="I31" s="37"/>
       <c r="J31" s="37"/>
@@ -2482,7 +2468,7 @@
       <c r="AB32" s="36"/>
     </row>
     <row r="33" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="35"/>
+      <c r="A33" s="39"/>
       <c r="B33" s="39"/>
       <c r="C33" s="37"/>
       <c r="D33" s="37"/>
@@ -2512,15 +2498,15 @@
       <c r="AB33" s="36"/>
     </row>
     <row r="34" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="39"/>
-      <c r="B34" s="39"/>
-      <c r="C34" s="37"/>
-      <c r="D34" s="37"/>
+      <c r="A34" s="35"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
       <c r="E34" s="37"/>
       <c r="F34" s="37"/>
       <c r="G34" s="37"/>
-      <c r="H34" s="37"/>
-      <c r="I34" s="37"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
       <c r="J34" s="37"/>
       <c r="K34" s="37"/>
       <c r="L34" s="37"/>
@@ -2531,15 +2517,15 @@
       <c r="Q34" s="37"/>
       <c r="R34" s="37"/>
       <c r="S34" s="37"/>
-      <c r="T34" s="36"/>
-      <c r="U34" s="36"/>
-      <c r="V34" s="36"/>
-      <c r="W34" s="36"/>
-      <c r="X34" s="36"/>
-      <c r="Y34" s="36"/>
-      <c r="Z34" s="36"/>
-      <c r="AA34" s="36"/>
-      <c r="AB34" s="36"/>
+      <c r="T34" s="38"/>
+      <c r="U34" s="38"/>
+      <c r="V34" s="38"/>
+      <c r="W34" s="38"/>
+      <c r="X34" s="38"/>
+      <c r="Y34" s="38"/>
+      <c r="Z34" s="38"/>
+      <c r="AA34" s="38"/>
+      <c r="AB34" s="38"/>
     </row>
     <row r="35" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="35"/>
@@ -2549,11 +2535,11 @@
       <c r="E35" s="37"/>
       <c r="F35" s="37"/>
       <c r="G35" s="37"/>
-      <c r="H35" s="36"/>
+      <c r="H35" s="37"/>
       <c r="I35" s="36"/>
       <c r="J35" s="37"/>
       <c r="K35" s="37"/>
-      <c r="L35" s="37"/>
+      <c r="L35" s="36"/>
       <c r="M35" s="37"/>
       <c r="N35" s="37"/>
       <c r="O35" s="37"/>
@@ -2561,15 +2547,15 @@
       <c r="Q35" s="37"/>
       <c r="R35" s="37"/>
       <c r="S35" s="37"/>
-      <c r="T35" s="38"/>
-      <c r="U35" s="38"/>
-      <c r="V35" s="38"/>
-      <c r="W35" s="38"/>
-      <c r="X35" s="38"/>
-      <c r="Y35" s="38"/>
-      <c r="Z35" s="38"/>
-      <c r="AA35" s="38"/>
-      <c r="AB35" s="38"/>
+      <c r="T35" s="36"/>
+      <c r="U35" s="36"/>
+      <c r="V35" s="36"/>
+      <c r="W35" s="36"/>
+      <c r="X35" s="36"/>
+      <c r="Y35" s="36"/>
+      <c r="Z35" s="36"/>
+      <c r="AA35" s="36"/>
+      <c r="AB35" s="36"/>
     </row>
     <row r="36" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="35"/>
@@ -2578,7 +2564,7 @@
       <c r="D36" s="36"/>
       <c r="E36" s="37"/>
       <c r="F36" s="37"/>
-      <c r="G36" s="37"/>
+      <c r="G36" s="36"/>
       <c r="H36" s="37"/>
       <c r="I36" s="36"/>
       <c r="J36" s="37"/>
@@ -2610,10 +2596,10 @@
       <c r="F37" s="37"/>
       <c r="G37" s="36"/>
       <c r="H37" s="37"/>
-      <c r="I37" s="36"/>
+      <c r="I37" s="37"/>
       <c r="J37" s="37"/>
       <c r="K37" s="37"/>
-      <c r="L37" s="36"/>
+      <c r="L37" s="37"/>
       <c r="M37" s="37"/>
       <c r="N37" s="37"/>
       <c r="O37" s="37"/>
@@ -2639,7 +2625,7 @@
       <c r="E38" s="37"/>
       <c r="F38" s="37"/>
       <c r="G38" s="36"/>
-      <c r="H38" s="37"/>
+      <c r="H38" s="36"/>
       <c r="I38" s="37"/>
       <c r="J38" s="37"/>
       <c r="K38" s="37"/>
@@ -2669,7 +2655,7 @@
       <c r="E39" s="37"/>
       <c r="F39" s="37"/>
       <c r="G39" s="36"/>
-      <c r="H39" s="36"/>
+      <c r="H39" s="37"/>
       <c r="I39" s="37"/>
       <c r="J39" s="37"/>
       <c r="K39" s="37"/>
@@ -2698,7 +2684,7 @@
       <c r="D40" s="36"/>
       <c r="E40" s="37"/>
       <c r="F40" s="37"/>
-      <c r="G40" s="36"/>
+      <c r="G40" s="37"/>
       <c r="H40" s="37"/>
       <c r="I40" s="37"/>
       <c r="J40" s="37"/>
@@ -2933,9 +2919,9 @@
     </row>
     <row r="48" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="35"/>
-      <c r="B48" s="35"/>
-      <c r="C48" s="36"/>
-      <c r="D48" s="36"/>
+      <c r="B48" s="39"/>
+      <c r="C48" s="37"/>
+      <c r="D48" s="37"/>
       <c r="E48" s="37"/>
       <c r="F48" s="37"/>
       <c r="G48" s="37"/>
@@ -3011,26 +2997,26 @@
       <c r="Q50" s="37"/>
       <c r="R50" s="37"/>
       <c r="S50" s="37"/>
-      <c r="T50" s="36"/>
-      <c r="U50" s="36"/>
-      <c r="V50" s="36"/>
-      <c r="W50" s="36"/>
-      <c r="X50" s="36"/>
-      <c r="Y50" s="36"/>
-      <c r="Z50" s="36"/>
-      <c r="AA50" s="36"/>
-      <c r="AB50" s="36"/>
+      <c r="T50" s="40"/>
+      <c r="U50" s="40"/>
+      <c r="V50" s="40"/>
+      <c r="W50" s="40"/>
+      <c r="X50" s="40"/>
+      <c r="Y50" s="40"/>
+      <c r="Z50" s="40"/>
+      <c r="AA50" s="40"/>
+      <c r="AB50" s="40"/>
     </row>
     <row r="51" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="35"/>
-      <c r="B51" s="39"/>
-      <c r="C51" s="37"/>
-      <c r="D51" s="37"/>
+      <c r="B51" s="35"/>
+      <c r="C51" s="36"/>
+      <c r="D51" s="36"/>
       <c r="E51" s="37"/>
       <c r="F51" s="37"/>
       <c r="G51" s="37"/>
-      <c r="H51" s="37"/>
-      <c r="I51" s="37"/>
+      <c r="H51" s="36"/>
+      <c r="I51" s="36"/>
       <c r="J51" s="37"/>
       <c r="K51" s="37"/>
       <c r="L51" s="37"/>
@@ -3059,8 +3045,8 @@
       <c r="E52" s="37"/>
       <c r="F52" s="37"/>
       <c r="G52" s="37"/>
-      <c r="H52" s="36"/>
-      <c r="I52" s="36"/>
+      <c r="H52" s="37"/>
+      <c r="I52" s="37"/>
       <c r="J52" s="37"/>
       <c r="K52" s="37"/>
       <c r="L52" s="37"/>
@@ -3071,15 +3057,15 @@
       <c r="Q52" s="37"/>
       <c r="R52" s="37"/>
       <c r="S52" s="37"/>
-      <c r="T52" s="40"/>
-      <c r="U52" s="40"/>
-      <c r="V52" s="40"/>
-      <c r="W52" s="40"/>
-      <c r="X52" s="40"/>
-      <c r="Y52" s="40"/>
-      <c r="Z52" s="40"/>
-      <c r="AA52" s="40"/>
-      <c r="AB52" s="40"/>
+      <c r="T52" s="36"/>
+      <c r="U52" s="36"/>
+      <c r="V52" s="36"/>
+      <c r="W52" s="36"/>
+      <c r="X52" s="36"/>
+      <c r="Y52" s="36"/>
+      <c r="Z52" s="36"/>
+      <c r="AA52" s="36"/>
+      <c r="AB52" s="36"/>
     </row>
     <row r="53" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="35"/>
@@ -3173,9 +3159,9 @@
     </row>
     <row r="56" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="35"/>
-      <c r="B56" s="35"/>
-      <c r="C56" s="36"/>
-      <c r="D56" s="36"/>
+      <c r="B56" s="39"/>
+      <c r="C56" s="37"/>
+      <c r="D56" s="37"/>
       <c r="E56" s="37"/>
       <c r="F56" s="37"/>
       <c r="G56" s="37"/>
@@ -3203,9 +3189,9 @@
     </row>
     <row r="57" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="35"/>
-      <c r="B57" s="39"/>
-      <c r="C57" s="37"/>
-      <c r="D57" s="37"/>
+      <c r="B57" s="35"/>
+      <c r="C57" s="36"/>
+      <c r="D57" s="36"/>
       <c r="E57" s="37"/>
       <c r="F57" s="37"/>
       <c r="G57" s="37"/>
@@ -3221,15 +3207,15 @@
       <c r="Q57" s="37"/>
       <c r="R57" s="37"/>
       <c r="S57" s="37"/>
-      <c r="T57" s="36"/>
-      <c r="U57" s="36"/>
-      <c r="V57" s="36"/>
-      <c r="W57" s="36"/>
-      <c r="X57" s="36"/>
-      <c r="Y57" s="36"/>
-      <c r="Z57" s="36"/>
-      <c r="AA57" s="36"/>
-      <c r="AB57" s="36"/>
+      <c r="T57" s="40"/>
+      <c r="U57" s="40"/>
+      <c r="V57" s="40"/>
+      <c r="W57" s="40"/>
+      <c r="X57" s="40"/>
+      <c r="Y57" s="40"/>
+      <c r="Z57" s="40"/>
+      <c r="AA57" s="40"/>
+      <c r="AB57" s="40"/>
     </row>
     <row r="58" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="35"/>
@@ -3269,8 +3255,8 @@
       <c r="E59" s="37"/>
       <c r="F59" s="37"/>
       <c r="G59" s="37"/>
-      <c r="H59" s="37"/>
-      <c r="I59" s="37"/>
+      <c r="H59" s="36"/>
+      <c r="I59" s="36"/>
       <c r="J59" s="37"/>
       <c r="K59" s="37"/>
       <c r="L59" s="37"/>
@@ -3299,8 +3285,8 @@
       <c r="E60" s="37"/>
       <c r="F60" s="37"/>
       <c r="G60" s="37"/>
-      <c r="H60" s="36"/>
-      <c r="I60" s="36"/>
+      <c r="H60" s="37"/>
+      <c r="I60" s="37"/>
       <c r="J60" s="37"/>
       <c r="K60" s="37"/>
       <c r="L60" s="37"/>
@@ -3419,11 +3405,11 @@
       <c r="E64" s="37"/>
       <c r="F64" s="37"/>
       <c r="G64" s="37"/>
-      <c r="H64" s="37"/>
-      <c r="I64" s="37"/>
+      <c r="H64" s="36"/>
+      <c r="I64" s="36"/>
       <c r="J64" s="37"/>
       <c r="K64" s="37"/>
-      <c r="L64" s="37"/>
+      <c r="L64" s="36"/>
       <c r="M64" s="37"/>
       <c r="N64" s="37"/>
       <c r="O64" s="37"/>
@@ -3448,7 +3434,7 @@
       <c r="D65" s="36"/>
       <c r="E65" s="37"/>
       <c r="F65" s="37"/>
-      <c r="G65" s="37"/>
+      <c r="G65" s="41"/>
       <c r="H65" s="36"/>
       <c r="I65" s="36"/>
       <c r="J65" s="37"/>
@@ -3478,12 +3464,12 @@
       <c r="D66" s="36"/>
       <c r="E66" s="37"/>
       <c r="F66" s="37"/>
-      <c r="G66" s="41"/>
-      <c r="H66" s="36"/>
-      <c r="I66" s="36"/>
+      <c r="G66" s="37"/>
+      <c r="H66" s="37"/>
+      <c r="I66" s="37"/>
       <c r="J66" s="37"/>
       <c r="K66" s="37"/>
-      <c r="L66" s="36"/>
+      <c r="L66" s="37"/>
       <c r="M66" s="37"/>
       <c r="N66" s="37"/>
       <c r="O66" s="37"/>
@@ -3501,39 +3487,9 @@
       <c r="AA66" s="40"/>
       <c r="AB66" s="40"/>
     </row>
-    <row r="67" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="35"/>
-      <c r="B67" s="35"/>
-      <c r="C67" s="36"/>
-      <c r="D67" s="36"/>
-      <c r="E67" s="37"/>
-      <c r="F67" s="37"/>
-      <c r="G67" s="37"/>
-      <c r="H67" s="37"/>
-      <c r="I67" s="37"/>
-      <c r="J67" s="37"/>
-      <c r="K67" s="37"/>
-      <c r="L67" s="37"/>
-      <c r="M67" s="37"/>
-      <c r="N67" s="37"/>
-      <c r="O67" s="37"/>
-      <c r="P67" s="37"/>
-      <c r="Q67" s="37"/>
-      <c r="R67" s="37"/>
-      <c r="S67" s="37"/>
-      <c r="T67" s="40"/>
-      <c r="U67" s="40"/>
-      <c r="V67" s="40"/>
-      <c r="W67" s="40"/>
-      <c r="X67" s="40"/>
-      <c r="Y67" s="40"/>
-      <c r="Z67" s="40"/>
-      <c r="AA67" s="40"/>
-      <c r="AB67" s="40"/>
-    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="E2:F67">
+    <dataValidation type="list" allowBlank="1" sqref="E2:F66">
       <formula1>"yes,no"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3588,10 +3544,10 @@
         <v>11</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3599,10 +3555,10 @@
         <v>11</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3610,21 +3566,21 @@
         <v>11</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>51</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -3703,7 +3659,7 @@
       </c>
       <c r="C2" s="9">
         <f ca="1">NOW()</f>
-        <v>44121.615853935182</v>
+        <v>44121.642152546294</v>
       </c>
       <c r="D2" s="10"/>
       <c r="E2" s="10" t="s">
@@ -3767,22 +3723,22 @@
         <v>4</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G1" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="H1" s="16" t="s">
-        <v>69</v>
-      </c>
       <c r="I1" s="17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
@@ -3801,13 +3757,13 @@
     </row>
     <row r="2" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="18" t="s">
         <v>71</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>73</v>
       </c>
       <c r="D2" s="18"/>
       <c r="E2" s="18"/>
@@ -3832,13 +3788,13 @@
     </row>
     <row r="3" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D3" s="18"/>
       <c r="E3" s="18"/>
@@ -3888,13 +3844,13 @@
     </row>
     <row r="5" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="18" t="s">
         <v>76</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>78</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
@@ -3919,13 +3875,13 @@
     </row>
     <row r="6" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
@@ -3950,13 +3906,13 @@
     </row>
     <row r="7" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D7" s="18"/>
       <c r="E7" s="18"/>
@@ -3981,13 +3937,13 @@
     </row>
     <row r="8" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="18"/>
@@ -4012,13 +3968,13 @@
     </row>
     <row r="9" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D9" s="18"/>
       <c r="E9" s="18"/>
@@ -4068,13 +4024,13 @@
     </row>
     <row r="11" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B11" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="18" t="s">
         <v>94</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>96</v>
       </c>
       <c r="D11" s="18"/>
       <c r="E11" s="18"/>
@@ -4099,13 +4055,13 @@
     </row>
     <row r="12" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B12" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" s="18" t="s">
         <v>98</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>100</v>
       </c>
       <c r="D12" s="18"/>
       <c r="E12" s="18"/>
@@ -4130,13 +4086,13 @@
     </row>
     <row r="13" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D13" s="18"/>
       <c r="E13" s="18"/>
@@ -4161,13 +4117,13 @@
     </row>
     <row r="14" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D14" s="18"/>
       <c r="E14" s="18"/>
@@ -4192,13 +4148,13 @@
     </row>
     <row r="15" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="18" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B15" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15" s="18" t="s">
         <v>105</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>107</v>
       </c>
       <c r="D15" s="18"/>
       <c r="E15" s="18"/>
@@ -4223,13 +4179,13 @@
     </row>
     <row r="16" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="18" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D16" s="18"/>
       <c r="E16" s="18"/>
@@ -4279,13 +4235,13 @@
     </row>
     <row r="18" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B18" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" s="18" t="s">
         <v>94</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>96</v>
       </c>
       <c r="D18" s="18"/>
       <c r="E18" s="18"/>
@@ -4310,13 +4266,13 @@
     </row>
     <row r="19" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B19" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19" s="18" t="s">
         <v>98</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>100</v>
       </c>
       <c r="D19" s="18"/>
       <c r="E19" s="18"/>
@@ -4341,13 +4297,13 @@
     </row>
     <row r="20" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D20" s="18"/>
       <c r="E20" s="18"/>
@@ -4372,13 +4328,13 @@
     </row>
     <row r="21" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D21" s="18"/>
       <c r="E21" s="18"/>
@@ -4403,13 +4359,13 @@
     </row>
     <row r="22" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D22" s="18"/>
       <c r="E22" s="18"/>
@@ -4434,13 +4390,13 @@
     </row>
     <row r="23" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D23" s="18"/>
       <c r="E23" s="18"/>
@@ -4490,13 +4446,13 @@
     </row>
     <row r="25" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="C25" s="18" t="s">
         <v>118</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>120</v>
       </c>
       <c r="D25" s="18"/>
       <c r="E25" s="18"/>
@@ -4521,13 +4477,13 @@
     </row>
     <row r="26" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="18" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D26" s="18"/>
       <c r="E26" s="18"/>
@@ -4552,13 +4508,13 @@
     </row>
     <row r="27" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="18" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D27" s="18"/>
       <c r="E27" s="18"/>
@@ -4583,13 +4539,13 @@
     </row>
     <row r="28" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="18" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D28" s="18"/>
       <c r="E28" s="18"/>
@@ -4614,7 +4570,7 @@
     </row>
     <row r="29" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="18" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B29" s="18" t="s">
         <v>48</v>
@@ -4670,13 +4626,13 @@
     </row>
     <row r="31" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="18" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D31" s="18"/>
       <c r="E31" s="18"/>
@@ -4701,13 +4657,13 @@
     </row>
     <row r="32" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="B32" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="B32" s="18" t="s">
-        <v>134</v>
-      </c>
       <c r="C32" s="18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D32" s="18"/>
       <c r="E32" s="18"/>
@@ -4757,115 +4713,115 @@
     </row>
     <row r="34" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B34" t="str">
         <f t="shared" ref="B34:B42" si="0">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C34, "(", ""), ")", "")), " ", "_")</f>
         <v>combined_oral_contraceptives</v>
       </c>
       <c r="C34" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="35" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B35" t="str">
         <f t="shared" si="0"/>
         <v>progesterone_only_pills</v>
       </c>
       <c r="C35" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B36" t="str">
         <f t="shared" si="0"/>
         <v>injectibles</v>
       </c>
       <c r="C36" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="37" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B37" t="str">
         <f t="shared" si="0"/>
         <v>implants_1_rod</v>
       </c>
       <c r="C37" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B38" t="str">
         <f t="shared" si="0"/>
         <v>implants_2_rods</v>
       </c>
       <c r="C38" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="39" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B39" t="str">
         <f t="shared" si="0"/>
         <v>iud</v>
       </c>
       <c r="C39" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="40" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B40" t="str">
         <f t="shared" si="0"/>
         <v>condoms</v>
       </c>
       <c r="C40" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="41" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B41" t="str">
         <f t="shared" si="0"/>
         <v>tubal_ligation</v>
       </c>
       <c r="C41" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="42" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B42" t="str">
         <f t="shared" si="0"/>
         <v>cycle_beads</v>
       </c>
       <c r="C42" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="43" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B43" t="s">
         <v>48</v>
@@ -4882,26 +4838,26 @@
     </row>
     <row r="45" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B45" t="str">
         <f t="shared" si="1"/>
         <v>wants_to_get_pregnant</v>
       </c>
       <c r="C45" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="46" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B46" t="str">
         <f t="shared" si="1"/>
         <v>did_not_want_fp</v>
       </c>
       <c r="C46" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="47" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4912,13 +4868,13 @@
     </row>
     <row r="48" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="B48" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="C48" s="19" t="s">
         <v>148</v>
-      </c>
-      <c r="B48" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="C48" s="19" t="s">
-        <v>150</v>
       </c>
       <c r="D48" s="19"/>
       <c r="E48" s="19"/>
@@ -4943,13 +4899,13 @@
     </row>
     <row r="49" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="19" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D49" s="19"/>
       <c r="E49" s="19"/>
@@ -4975,62 +4931,62 @@
     <row r="50" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="51" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
+        <v>151</v>
+      </c>
+      <c r="B51" t="s">
+        <v>152</v>
+      </c>
+      <c r="C51" t="s">
         <v>153</v>
-      </c>
-      <c r="B51" t="s">
-        <v>154</v>
-      </c>
-      <c r="C51" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="52" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B52" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C52" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="53" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B53" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C53" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="54" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B54" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C54" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="55" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B55" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C55" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="56" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B56" t="s">
         <v>48</v>
@@ -5042,40 +4998,40 @@
     <row r="57" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="58" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="B58" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="C58" s="19" t="s">
         <v>164</v>
-      </c>
-      <c r="B58" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="C58" s="19" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="59" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="19" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B59" s="19" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C59" s="19" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="60" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="19" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B60" s="19" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C60" s="19" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="61" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="19" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B61" s="19" t="s">
         <v>48</v>
@@ -5087,108 +5043,108 @@
     <row r="62" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="63" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C63" s="19" t="s">
         <v>171</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="C63" s="19" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="64" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C64" s="19" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C65" s="19" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C66" s="19" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C67" s="19" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="69" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
+        <v>180</v>
+      </c>
+      <c r="B69" t="s">
+        <v>181</v>
+      </c>
+      <c r="C69" t="s">
         <v>182</v>
-      </c>
-      <c r="B69" t="s">
-        <v>183</v>
-      </c>
-      <c r="C69" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B70" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C70" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="72" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B72" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C72" s="20" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
+        <v>185</v>
+      </c>
+      <c r="B73" t="s">
         <v>187</v>
       </c>
-      <c r="B73" t="s">
-        <v>189</v>
-      </c>
       <c r="C73" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B74" t="s">
         <v>48</v>

--- a/forms/app/covid_rdt.xlsx
+++ b/forms/app/covid_rdt.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="202">
   <si>
     <t>form_title</t>
   </si>
@@ -611,30 +611,6 @@
     <t>**Temperature measured by clinical thermometer**</t>
   </si>
   <si>
-    <t>** Température mesurée par un thermomètre à infrarouge **</t>
-  </si>
-  <si>
-    <t>Unité</t>
-  </si>
-  <si>
-    <t>Valeur</t>
-  </si>
-  <si>
-    <t>** La température mesurée par un thermomètre clinique **</t>
-  </si>
-  <si>
-    <t>Veuillez préciser</t>
-  </si>
-  <si>
-    <t>Remarques</t>
-  </si>
-  <si>
-    <t>Patient référé</t>
-  </si>
-  <si>
-    <t>label::sh</t>
-  </si>
-  <si>
     <t>Parirenyatwa Hospital</t>
   </si>
   <si>
@@ -659,16 +635,13 @@
     <t>°C</t>
   </si>
   <si>
-    <t>patient_dob</t>
-  </si>
-  <si>
-    <t>patient_phone</t>
-  </si>
-  <si>
-    <t>patient_household</t>
-  </si>
-  <si>
     <t>rdt_note</t>
+  </si>
+  <si>
+    <t>patient_uuid</t>
+  </si>
+  <si>
+    <t>../inputs/contact/_id</t>
   </si>
 </sst>
 </file>
@@ -1250,31 +1223,31 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AB66"/>
+  <dimension ref="A1:AB64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A15" sqref="A15:XFD17"/>
+      <selection pane="bottomRight" activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.28515625" style="26" customWidth="1"/>
     <col min="2" max="2" width="33.28515625" style="26" customWidth="1"/>
-    <col min="3" max="4" width="44.42578125" style="26" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="26" customWidth="1"/>
-    <col min="7" max="7" width="53.85546875" style="26" customWidth="1"/>
-    <col min="8" max="9" width="17.42578125" style="26" customWidth="1"/>
-    <col min="10" max="10" width="37.7109375" style="26" customWidth="1"/>
-    <col min="11" max="11" width="32.7109375" style="26" customWidth="1"/>
-    <col min="12" max="12" width="73.85546875" style="26" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="26" customWidth="1"/>
-    <col min="14" max="14" width="30" style="26" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="26" customWidth="1"/>
-    <col min="17" max="28" width="29.85546875" style="26" customWidth="1"/>
-    <col min="29" max="16384" width="14.42578125" style="26"/>
+    <col min="3" max="3" width="44.42578125" style="26" customWidth="1"/>
+    <col min="4" max="5" width="14.42578125" style="26" customWidth="1"/>
+    <col min="6" max="6" width="53.85546875" style="26" customWidth="1"/>
+    <col min="7" max="8" width="17.42578125" style="26" customWidth="1"/>
+    <col min="9" max="9" width="37.7109375" style="26" customWidth="1"/>
+    <col min="10" max="10" width="32.7109375" style="26" customWidth="1"/>
+    <col min="11" max="11" width="73.85546875" style="26" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="26" customWidth="1"/>
+    <col min="13" max="13" width="30" style="26" customWidth="1"/>
+    <col min="14" max="15" width="14.42578125" style="26" customWidth="1"/>
+    <col min="16" max="27" width="29.85546875" style="26" customWidth="1"/>
+    <col min="28" max="16384" width="14.42578125" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1288,56 +1261,54 @@
         <v>4</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>198</v>
-      </c>
-      <c r="E1" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="E1" s="24" t="s">
         <v>13</v>
       </c>
+      <c r="F1" s="23" t="s">
+        <v>14</v>
+      </c>
       <c r="G1" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="H1" s="24" t="s">
         <v>16</v>
       </c>
+      <c r="I1" s="23" t="s">
+        <v>17</v>
+      </c>
       <c r="J1" s="23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K1" s="23" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L1" s="23" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M1" s="23" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N1" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="O1" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="24" t="s">
+      <c r="O1" s="24" t="s">
         <v>23</v>
       </c>
+      <c r="P1" s="23" t="s">
+        <v>24</v>
+      </c>
       <c r="Q1" s="23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R1" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="S1" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="T1" s="25" t="s">
+      <c r="S1" s="25" t="s">
         <v>27</v>
       </c>
+      <c r="T1" s="25"/>
       <c r="U1" s="25"/>
       <c r="V1" s="25"/>
       <c r="W1" s="25"/>
@@ -1345,7 +1316,6 @@
       <c r="Y1" s="25"/>
       <c r="Z1" s="25"/>
       <c r="AA1" s="25"/>
-      <c r="AB1" s="25"/>
     </row>
     <row r="2" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
@@ -1357,15 +1327,15 @@
       <c r="C2" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="28"/>
+      <c r="D2" s="29"/>
       <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
+      <c r="F2" s="29" t="s">
+        <v>32</v>
+      </c>
       <c r="G2" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" s="29" t="s">
         <v>33</v>
       </c>
+      <c r="H2" s="29"/>
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
       <c r="K2" s="29"/>
@@ -1376,7 +1346,7 @@
       <c r="P2" s="29"/>
       <c r="Q2" s="29"/>
       <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
+      <c r="S2" s="30"/>
       <c r="T2" s="30"/>
       <c r="U2" s="30"/>
       <c r="V2" s="30"/>
@@ -1385,7 +1355,6 @@
       <c r="Y2" s="30"/>
       <c r="Z2" s="30"/>
       <c r="AA2" s="30"/>
-      <c r="AB2" s="30"/>
     </row>
     <row r="3" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
@@ -1407,14 +1376,14 @@
       <c r="K3" s="29"/>
       <c r="L3" s="29"/>
       <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29" t="s">
+      <c r="N3" s="29" t="s">
         <v>38</v>
       </c>
+      <c r="O3" s="29"/>
       <c r="P3" s="29"/>
       <c r="Q3" s="29"/>
       <c r="R3" s="29"/>
-      <c r="S3" s="29"/>
+      <c r="S3" s="30"/>
       <c r="T3" s="30"/>
       <c r="U3" s="30"/>
       <c r="V3" s="30"/>
@@ -1423,7 +1392,6 @@
       <c r="Y3" s="30"/>
       <c r="Z3" s="30"/>
       <c r="AA3" s="30"/>
-      <c r="AB3" s="30"/>
     </row>
     <row r="4" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
@@ -1450,7 +1418,7 @@
       <c r="P4" s="29"/>
       <c r="Q4" s="29"/>
       <c r="R4" s="29"/>
-      <c r="S4" s="29"/>
+      <c r="S4" s="30"/>
       <c r="T4" s="30"/>
       <c r="U4" s="30"/>
       <c r="V4" s="30"/>
@@ -1459,7 +1427,6 @@
       <c r="Y4" s="30"/>
       <c r="Z4" s="30"/>
       <c r="AA4" s="30"/>
-      <c r="AB4" s="30"/>
     </row>
     <row r="5" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
@@ -1471,7 +1438,7 @@
       <c r="C5" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="28"/>
+      <c r="D5" s="29"/>
       <c r="E5" s="29"/>
       <c r="F5" s="29"/>
       <c r="G5" s="29"/>
@@ -1486,7 +1453,7 @@
       <c r="P5" s="29"/>
       <c r="Q5" s="29"/>
       <c r="R5" s="29"/>
-      <c r="S5" s="29"/>
+      <c r="S5" s="30"/>
       <c r="T5" s="30"/>
       <c r="U5" s="30"/>
       <c r="V5" s="30"/>
@@ -1495,7 +1462,6 @@
       <c r="Y5" s="30"/>
       <c r="Z5" s="30"/>
       <c r="AA5" s="30"/>
-      <c r="AB5" s="30"/>
     </row>
     <row r="6" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="s">
@@ -1507,13 +1473,13 @@
       <c r="C6" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="28"/>
+      <c r="D6" s="29"/>
       <c r="E6" s="29"/>
       <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29" t="s">
+      <c r="G6" s="29" t="s">
         <v>45</v>
       </c>
+      <c r="H6" s="29"/>
       <c r="I6" s="29"/>
       <c r="J6" s="29"/>
       <c r="K6" s="29"/>
@@ -1524,7 +1490,7 @@
       <c r="P6" s="29"/>
       <c r="Q6" s="29"/>
       <c r="R6" s="29"/>
-      <c r="S6" s="29"/>
+      <c r="S6" s="30"/>
       <c r="T6" s="30"/>
       <c r="U6" s="30"/>
       <c r="V6" s="30"/>
@@ -1533,7 +1499,6 @@
       <c r="Y6" s="30"/>
       <c r="Z6" s="30"/>
       <c r="AA6" s="30"/>
-      <c r="AB6" s="30"/>
     </row>
     <row r="7" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="s">
@@ -1560,7 +1525,7 @@
       <c r="P7" s="29"/>
       <c r="Q7" s="29"/>
       <c r="R7" s="29"/>
-      <c r="S7" s="29"/>
+      <c r="S7" s="30"/>
       <c r="T7" s="30"/>
       <c r="U7" s="30"/>
       <c r="V7" s="30"/>
@@ -1569,7 +1534,6 @@
       <c r="Y7" s="30"/>
       <c r="Z7" s="30"/>
       <c r="AA7" s="30"/>
-      <c r="AB7" s="30"/>
     </row>
     <row r="8" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
@@ -1596,7 +1560,7 @@
       <c r="P8" s="29"/>
       <c r="Q8" s="29"/>
       <c r="R8" s="29"/>
-      <c r="S8" s="29"/>
+      <c r="S8" s="30"/>
       <c r="T8" s="30"/>
       <c r="U8" s="30"/>
       <c r="V8" s="30"/>
@@ -1605,7 +1569,6 @@
       <c r="Y8" s="30"/>
       <c r="Z8" s="30"/>
       <c r="AA8" s="30"/>
-      <c r="AB8" s="30"/>
     </row>
     <row r="9" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="31" t="s">
@@ -1641,7 +1604,6 @@
       <c r="Y9" s="28"/>
       <c r="Z9" s="28"/>
       <c r="AA9" s="28"/>
-      <c r="AB9" s="28"/>
     </row>
     <row r="10" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
@@ -1666,7 +1628,7 @@
       <c r="P10" s="29"/>
       <c r="Q10" s="29"/>
       <c r="R10" s="29"/>
-      <c r="S10" s="29"/>
+      <c r="S10" s="30"/>
       <c r="T10" s="30"/>
       <c r="U10" s="30"/>
       <c r="V10" s="30"/>
@@ -1675,7 +1637,6 @@
       <c r="Y10" s="30"/>
       <c r="Z10" s="30"/>
       <c r="AA10" s="30"/>
-      <c r="AB10" s="30"/>
     </row>
     <row r="11" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="27" t="s">
@@ -1698,11 +1659,11 @@
       <c r="N11" s="29"/>
       <c r="O11" s="29"/>
       <c r="P11" s="29"/>
-      <c r="Q11" s="29"/>
-      <c r="R11" s="29" t="s">
+      <c r="Q11" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="S11" s="29"/>
+      <c r="R11" s="29"/>
+      <c r="S11" s="30"/>
       <c r="T11" s="30"/>
       <c r="U11" s="30"/>
       <c r="V11" s="30"/>
@@ -1711,7 +1672,6 @@
       <c r="Y11" s="30"/>
       <c r="Z11" s="30"/>
       <c r="AA11" s="30"/>
-      <c r="AB11" s="30"/>
     </row>
     <row r="12" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="32"/>
@@ -1732,7 +1692,7 @@
       <c r="P12" s="32"/>
       <c r="Q12" s="32"/>
       <c r="R12" s="32"/>
-      <c r="S12" s="32"/>
+      <c r="S12" s="33"/>
       <c r="T12" s="33"/>
       <c r="U12" s="33"/>
       <c r="V12" s="33"/>
@@ -1741,14 +1701,13 @@
       <c r="Y12" s="33"/>
       <c r="Z12" s="33"/>
       <c r="AA12" s="33"/>
-      <c r="AB12" s="33"/>
     </row>
     <row r="13" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
         <v>58</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>53</v>
+        <v>200</v>
       </c>
       <c r="C13" s="22" t="s">
         <v>30</v>
@@ -1760,9 +1719,8 @@
       <c r="H13" s="22"/>
       <c r="I13" s="22"/>
       <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22" t="s">
-        <v>61</v>
+      <c r="K13" s="22" t="s">
+        <v>201</v>
       </c>
       <c r="M13" s="22"/>
       <c r="N13" s="22"/>
@@ -1786,7 +1744,7 @@
         <v>58</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C14" s="22" t="s">
         <v>30</v>
@@ -1798,17 +1756,17 @@
       <c r="H14" s="22"/>
       <c r="I14" s="22"/>
       <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22" t="s">
-        <v>63</v>
-      </c>
+      <c r="K14" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="L14" s="22"/>
       <c r="M14" s="22"/>
       <c r="N14" s="22"/>
       <c r="O14" s="22"/>
       <c r="P14" s="22"/>
       <c r="Q14" s="22"/>
       <c r="R14" s="22"/>
-      <c r="S14" s="22"/>
+      <c r="S14" s="34"/>
       <c r="T14" s="34"/>
       <c r="U14" s="34"/>
       <c r="V14" s="34"/>
@@ -1817,14 +1775,13 @@
       <c r="Y14" s="34"/>
       <c r="Z14" s="34"/>
       <c r="AA14" s="34"/>
-      <c r="AB14" s="34"/>
     </row>
     <row r="15" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
         <v>58</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>207</v>
+        <v>62</v>
       </c>
       <c r="C15" s="22" t="s">
         <v>30</v>
@@ -1836,7 +1793,9 @@
       <c r="H15" s="22"/>
       <c r="I15" s="22"/>
       <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
+      <c r="K15" s="22" t="s">
+        <v>63</v>
+      </c>
       <c r="L15" s="22"/>
       <c r="M15" s="22"/>
       <c r="N15" s="22"/>
@@ -1844,7 +1803,7 @@
       <c r="P15" s="22"/>
       <c r="Q15" s="22"/>
       <c r="R15" s="22"/>
-      <c r="S15" s="22"/>
+      <c r="S15" s="34"/>
       <c r="T15" s="34"/>
       <c r="U15" s="34"/>
       <c r="V15" s="34"/>
@@ -1853,138 +1812,138 @@
       <c r="Y15" s="34"/>
       <c r="Z15" s="34"/>
       <c r="AA15" s="34"/>
-      <c r="AB15" s="34"/>
     </row>
     <row r="16" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>208</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="22"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="22"/>
-      <c r="R16" s="22"/>
-      <c r="S16" s="22"/>
-      <c r="T16" s="34"/>
-      <c r="U16" s="34"/>
-      <c r="V16" s="34"/>
-      <c r="W16" s="34"/>
-      <c r="X16" s="34"/>
-      <c r="Y16" s="34"/>
-      <c r="Z16" s="34"/>
-      <c r="AA16" s="34"/>
-      <c r="AB16" s="34"/>
-    </row>
-    <row r="17" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>209</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="22"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="22"/>
-      <c r="R17" s="22"/>
-      <c r="S17" s="22"/>
-      <c r="T17" s="34"/>
-      <c r="U17" s="34"/>
-      <c r="V17" s="34"/>
-      <c r="W17" s="34"/>
-      <c r="X17" s="34"/>
-      <c r="Y17" s="34"/>
-      <c r="Z17" s="34"/>
-      <c r="AA17" s="34"/>
-      <c r="AB17" s="34"/>
-    </row>
-    <row r="18" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="32"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="32"/>
-      <c r="M18" s="32"/>
-      <c r="N18" s="32"/>
-      <c r="O18" s="32"/>
-      <c r="P18" s="32"/>
-      <c r="Q18" s="32"/>
-      <c r="R18" s="32"/>
-      <c r="S18" s="32"/>
-      <c r="T18" s="33"/>
-      <c r="U18" s="33"/>
-      <c r="V18" s="33"/>
-      <c r="W18" s="33"/>
-      <c r="X18" s="33"/>
-      <c r="Y18" s="33"/>
-      <c r="Z18" s="33"/>
-      <c r="AA18" s="33"/>
-      <c r="AB18" s="33"/>
-    </row>
-    <row r="19" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="32"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="32"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="32"/>
+      <c r="O16" s="32"/>
+      <c r="P16" s="32"/>
+      <c r="Q16" s="32"/>
+      <c r="R16" s="32"/>
+      <c r="S16" s="33"/>
+      <c r="T16" s="33"/>
+      <c r="U16" s="33"/>
+      <c r="V16" s="33"/>
+      <c r="W16" s="33"/>
+      <c r="X16" s="33"/>
+      <c r="Y16" s="33"/>
+      <c r="Z16" s="33"/>
+      <c r="AA16" s="33"/>
+    </row>
+    <row r="17" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="C17" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="37"/>
+      <c r="P17" s="37"/>
+      <c r="Q17" s="37"/>
+      <c r="R17" s="37"/>
+      <c r="S17" s="38"/>
+      <c r="T17" s="38"/>
+      <c r="U17" s="38"/>
+      <c r="V17" s="38"/>
+      <c r="W17" s="38"/>
+      <c r="X17" s="38"/>
+      <c r="Y17" s="38"/>
+      <c r="Z17" s="38"/>
+      <c r="AA17" s="38"/>
+    </row>
+    <row r="18" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="O18" s="37"/>
+      <c r="P18" s="37"/>
+      <c r="Q18" s="37"/>
+      <c r="R18" s="37"/>
+      <c r="S18" s="38"/>
+      <c r="T18" s="38"/>
+      <c r="U18" s="38"/>
+      <c r="V18" s="38"/>
+      <c r="W18" s="38"/>
+      <c r="X18" s="38"/>
+      <c r="Y18" s="38"/>
+      <c r="Z18" s="38"/>
+      <c r="AA18" s="38"/>
+    </row>
+    <row r="19" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="35" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="B19" s="35" t="s">
-        <v>210</v>
+        <v>89</v>
       </c>
       <c r="C19" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="D19" s="36" t="s">
-        <v>191</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="D19" s="37"/>
       <c r="E19" s="37"/>
       <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
+      <c r="G19" s="36"/>
       <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="37"/>
+      <c r="I19" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="J19" s="36" t="s">
+        <v>95</v>
+      </c>
       <c r="K19" s="37"/>
       <c r="L19" s="37"/>
       <c r="M19" s="37"/>
-      <c r="N19" s="37"/>
-      <c r="O19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="37"/>
       <c r="P19" s="37"/>
       <c r="Q19" s="37"/>
       <c r="R19" s="37"/>
-      <c r="S19" s="37"/>
+      <c r="S19" s="38"/>
       <c r="T19" s="38"/>
       <c r="U19" s="38"/>
       <c r="V19" s="38"/>
@@ -1993,38 +1952,33 @@
       <c r="Y19" s="38"/>
       <c r="Z19" s="38"/>
       <c r="AA19" s="38"/>
-      <c r="AB19" s="38"/>
-    </row>
-    <row r="20" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="35" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="B20" s="35" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="C20" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="D20" s="36" t="s">
-        <v>192</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="D20" s="37"/>
       <c r="E20" s="37"/>
       <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
+      <c r="G20" s="36"/>
       <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
+      <c r="I20" s="37"/>
       <c r="J20" s="37"/>
       <c r="K20" s="37"/>
       <c r="L20" s="37"/>
       <c r="M20" s="37"/>
-      <c r="N20" s="37"/>
-      <c r="O20" s="36" t="s">
-        <v>51</v>
-      </c>
+      <c r="N20" s="36"/>
+      <c r="O20" s="37"/>
       <c r="P20" s="37"/>
       <c r="Q20" s="37"/>
       <c r="R20" s="37"/>
-      <c r="S20" s="37"/>
+      <c r="S20" s="38"/>
       <c r="T20" s="38"/>
       <c r="U20" s="38"/>
       <c r="V20" s="38"/>
@@ -2033,78 +1987,74 @@
       <c r="Y20" s="38"/>
       <c r="Z20" s="38"/>
       <c r="AA20" s="38"/>
-      <c r="AB20" s="38"/>
-    </row>
-    <row r="21" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="35" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B21" s="35" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="C21" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="D21" s="36" t="s">
-        <v>193</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="D21" s="36"/>
       <c r="E21" s="37"/>
       <c r="F21" s="37"/>
       <c r="G21" s="37"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="K21" s="36" t="s">
-        <v>95</v>
-      </c>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="36"/>
       <c r="L21" s="37"/>
       <c r="M21" s="37"/>
-      <c r="N21" s="37"/>
-      <c r="O21" s="36"/>
+      <c r="N21" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="O21" s="37"/>
       <c r="P21" s="37"/>
       <c r="Q21" s="37"/>
       <c r="R21" s="37"/>
-      <c r="S21" s="37"/>
-      <c r="T21" s="38"/>
-      <c r="U21" s="38"/>
-      <c r="V21" s="38"/>
-      <c r="W21" s="38"/>
-      <c r="X21" s="38"/>
-      <c r="Y21" s="38"/>
-      <c r="Z21" s="38"/>
-      <c r="AA21" s="38"/>
-      <c r="AB21" s="38"/>
-    </row>
-    <row r="22" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S21" s="36"/>
+      <c r="T21" s="36"/>
+      <c r="U21" s="36"/>
+      <c r="V21" s="36"/>
+      <c r="W21" s="36"/>
+      <c r="X21" s="36"/>
+      <c r="Y21" s="36"/>
+      <c r="Z21" s="36"/>
+      <c r="AA21" s="36"/>
+    </row>
+    <row r="22" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="35" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="C22" s="36" t="s">
-        <v>190</v>
-      </c>
-      <c r="D22" s="36" t="s">
-        <v>194</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="D22" s="37"/>
       <c r="E22" s="37"/>
       <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
+      <c r="G22" s="36"/>
       <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="37"/>
+      <c r="I22" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="J22" s="36" t="s">
+        <v>95</v>
+      </c>
       <c r="K22" s="37"/>
       <c r="L22" s="37"/>
       <c r="M22" s="37"/>
       <c r="N22" s="37"/>
-      <c r="O22" s="36"/>
+      <c r="O22" s="37"/>
       <c r="P22" s="37"/>
       <c r="Q22" s="37"/>
       <c r="R22" s="37"/>
-      <c r="S22" s="37"/>
+      <c r="S22" s="38"/>
       <c r="T22" s="38"/>
       <c r="U22" s="38"/>
       <c r="V22" s="38"/>
@@ -2113,38 +2063,35 @@
       <c r="Y22" s="38"/>
       <c r="Z22" s="38"/>
       <c r="AA22" s="38"/>
-      <c r="AB22" s="38"/>
-    </row>
-    <row r="23" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="35" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="B23" s="35" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="C23" s="36" t="s">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c r="D23" s="36" t="s">
-        <v>192</v>
-      </c>
-      <c r="E23" s="36"/>
+        <v>70</v>
+      </c>
+      <c r="E23" s="37"/>
       <c r="F23" s="37"/>
       <c r="G23" s="37"/>
       <c r="H23" s="37"/>
       <c r="I23" s="37"/>
       <c r="J23" s="37"/>
-      <c r="K23" s="37"/>
-      <c r="L23" s="36"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="37"/>
       <c r="M23" s="37"/>
       <c r="N23" s="37"/>
-      <c r="O23" s="36" t="s">
-        <v>52</v>
-      </c>
+      <c r="O23" s="37"/>
       <c r="P23" s="37"/>
       <c r="Q23" s="37"/>
       <c r="R23" s="37"/>
-      <c r="S23" s="37"/>
+      <c r="S23" s="36"/>
       <c r="T23" s="36"/>
       <c r="U23" s="36"/>
       <c r="V23" s="36"/>
@@ -2153,32 +2100,29 @@
       <c r="Y23" s="36"/>
       <c r="Z23" s="36"/>
       <c r="AA23" s="36"/>
-      <c r="AB23" s="36"/>
-    </row>
-    <row r="24" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="35" t="s">
-        <v>88</v>
+        <v>119</v>
       </c>
       <c r="B24" s="35" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="C24" s="36" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="D24" s="36" t="s">
-        <v>193</v>
+        <v>70</v>
       </c>
       <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
+      <c r="F24" s="36" t="s">
+        <v>124</v>
+      </c>
       <c r="G24" s="37"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36" t="s">
-        <v>110</v>
-      </c>
-      <c r="K24" s="36" t="s">
-        <v>95</v>
-      </c>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="37"/>
       <c r="L24" s="37"/>
       <c r="M24" s="37"/>
       <c r="N24" s="37"/>
@@ -2186,7 +2130,7 @@
       <c r="P24" s="37"/>
       <c r="Q24" s="37"/>
       <c r="R24" s="37"/>
-      <c r="S24" s="37"/>
+      <c r="S24" s="38"/>
       <c r="T24" s="38"/>
       <c r="U24" s="38"/>
       <c r="V24" s="38"/>
@@ -2195,68 +2139,50 @@
       <c r="Y24" s="38"/>
       <c r="Z24" s="38"/>
       <c r="AA24" s="38"/>
-      <c r="AB24" s="38"/>
-    </row>
-    <row r="25" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="35" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B25" s="35" t="s">
-        <v>114</v>
+        <v>23</v>
       </c>
       <c r="C25" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="D25" s="36" t="s">
-        <v>197</v>
-      </c>
-      <c r="E25" s="36" t="s">
-        <v>70</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
       <c r="F25" s="37"/>
       <c r="G25" s="37"/>
       <c r="H25" s="37"/>
       <c r="I25" s="37"/>
       <c r="J25" s="37"/>
       <c r="K25" s="37"/>
-      <c r="L25" s="36"/>
+      <c r="L25" s="37"/>
       <c r="M25" s="37"/>
       <c r="N25" s="37"/>
       <c r="O25" s="37"/>
       <c r="P25" s="37"/>
       <c r="Q25" s="37"/>
       <c r="R25" s="37"/>
-      <c r="S25" s="37"/>
-      <c r="T25" s="36"/>
-      <c r="U25" s="36"/>
-      <c r="V25" s="36"/>
-      <c r="W25" s="36"/>
-      <c r="X25" s="36"/>
-      <c r="Y25" s="36"/>
-      <c r="Z25" s="36"/>
-      <c r="AA25" s="36"/>
-      <c r="AB25" s="36"/>
-    </row>
-    <row r="26" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="35" t="s">
-        <v>119</v>
-      </c>
-      <c r="B26" s="35" t="s">
-        <v>120</v>
-      </c>
-      <c r="C26" s="36" t="s">
-        <v>121</v>
-      </c>
-      <c r="D26" s="36" t="s">
-        <v>195</v>
-      </c>
-      <c r="E26" s="36" t="s">
-        <v>70</v>
-      </c>
+      <c r="S25" s="38"/>
+      <c r="T25" s="38"/>
+      <c r="U25" s="38"/>
+      <c r="V25" s="38"/>
+      <c r="W25" s="38"/>
+      <c r="X25" s="38"/>
+      <c r="Y25" s="38"/>
+      <c r="Z25" s="38"/>
+      <c r="AA25" s="38"/>
+    </row>
+    <row r="26" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="35"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
       <c r="F26" s="37"/>
-      <c r="G26" s="36" t="s">
-        <v>124</v>
-      </c>
+      <c r="G26" s="37"/>
       <c r="H26" s="37"/>
       <c r="I26" s="37"/>
       <c r="J26" s="37"/>
@@ -2268,32 +2194,23 @@
       <c r="P26" s="37"/>
       <c r="Q26" s="37"/>
       <c r="R26" s="37"/>
-      <c r="S26" s="37"/>
-      <c r="T26" s="38"/>
-      <c r="U26" s="38"/>
-      <c r="V26" s="38"/>
-      <c r="W26" s="38"/>
-      <c r="X26" s="38"/>
-      <c r="Y26" s="38"/>
-      <c r="Z26" s="38"/>
-      <c r="AA26" s="38"/>
-      <c r="AB26" s="38"/>
-    </row>
-    <row r="27" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="35" t="s">
-        <v>119</v>
-      </c>
-      <c r="B27" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27" s="36" t="s">
-        <v>127</v>
-      </c>
-      <c r="D27" s="36" t="s">
-        <v>196</v>
-      </c>
+      <c r="S26" s="36"/>
+      <c r="T26" s="36"/>
+      <c r="U26" s="36"/>
+      <c r="V26" s="36"/>
+      <c r="W26" s="36"/>
+      <c r="X26" s="36"/>
+      <c r="Y26" s="36"/>
+      <c r="Z26" s="36"/>
+      <c r="AA26" s="36"/>
+    </row>
+    <row r="27" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="35"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="37"/>
       <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
+      <c r="F27" s="36"/>
       <c r="G27" s="37"/>
       <c r="H27" s="37"/>
       <c r="I27" s="37"/>
@@ -2306,24 +2223,23 @@
       <c r="P27" s="37"/>
       <c r="Q27" s="37"/>
       <c r="R27" s="37"/>
-      <c r="S27" s="37"/>
-      <c r="T27" s="38"/>
-      <c r="U27" s="38"/>
-      <c r="V27" s="38"/>
-      <c r="W27" s="38"/>
-      <c r="X27" s="38"/>
-      <c r="Y27" s="38"/>
-      <c r="Z27" s="38"/>
-      <c r="AA27" s="38"/>
-      <c r="AB27" s="38"/>
-    </row>
-    <row r="28" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S27" s="36"/>
+      <c r="T27" s="36"/>
+      <c r="U27" s="36"/>
+      <c r="V27" s="36"/>
+      <c r="W27" s="36"/>
+      <c r="X27" s="36"/>
+      <c r="Y27" s="36"/>
+      <c r="Z27" s="36"/>
+      <c r="AA27" s="36"/>
+    </row>
+    <row r="28" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="35"/>
       <c r="B28" s="35"/>
       <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
+      <c r="D28" s="37"/>
       <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
+      <c r="F28" s="36"/>
       <c r="G28" s="37"/>
       <c r="H28" s="37"/>
       <c r="I28" s="37"/>
@@ -2336,7 +2252,7 @@
       <c r="P28" s="37"/>
       <c r="Q28" s="37"/>
       <c r="R28" s="37"/>
-      <c r="S28" s="37"/>
+      <c r="S28" s="36"/>
       <c r="T28" s="36"/>
       <c r="U28" s="36"/>
       <c r="V28" s="36"/>
@@ -2345,16 +2261,15 @@
       <c r="Y28" s="36"/>
       <c r="Z28" s="36"/>
       <c r="AA28" s="36"/>
-      <c r="AB28" s="36"/>
-    </row>
-    <row r="29" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="35"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
       <c r="E29" s="37"/>
       <c r="F29" s="37"/>
-      <c r="G29" s="36"/>
+      <c r="G29" s="37"/>
       <c r="H29" s="37"/>
       <c r="I29" s="37"/>
       <c r="J29" s="37"/>
@@ -2366,7 +2281,7 @@
       <c r="P29" s="37"/>
       <c r="Q29" s="37"/>
       <c r="R29" s="37"/>
-      <c r="S29" s="37"/>
+      <c r="S29" s="36"/>
       <c r="T29" s="36"/>
       <c r="U29" s="36"/>
       <c r="V29" s="36"/>
@@ -2375,16 +2290,15 @@
       <c r="Y29" s="36"/>
       <c r="Z29" s="36"/>
       <c r="AA29" s="36"/>
-      <c r="AB29" s="36"/>
-    </row>
-    <row r="30" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="35"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
       <c r="E30" s="37"/>
       <c r="F30" s="37"/>
-      <c r="G30" s="36"/>
+      <c r="G30" s="37"/>
       <c r="H30" s="37"/>
       <c r="I30" s="37"/>
       <c r="J30" s="37"/>
@@ -2396,7 +2310,7 @@
       <c r="P30" s="37"/>
       <c r="Q30" s="37"/>
       <c r="R30" s="37"/>
-      <c r="S30" s="37"/>
+      <c r="S30" s="36"/>
       <c r="T30" s="36"/>
       <c r="U30" s="36"/>
       <c r="V30" s="36"/>
@@ -2405,10 +2319,9 @@
       <c r="Y30" s="36"/>
       <c r="Z30" s="36"/>
       <c r="AA30" s="36"/>
-      <c r="AB30" s="36"/>
-    </row>
-    <row r="31" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="35"/>
+    </row>
+    <row r="31" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="39"/>
       <c r="B31" s="39"/>
       <c r="C31" s="37"/>
       <c r="D31" s="37"/>
@@ -2426,7 +2339,7 @@
       <c r="P31" s="37"/>
       <c r="Q31" s="37"/>
       <c r="R31" s="37"/>
-      <c r="S31" s="37"/>
+      <c r="S31" s="36"/>
       <c r="T31" s="36"/>
       <c r="U31" s="36"/>
       <c r="V31" s="36"/>
@@ -2435,17 +2348,16 @@
       <c r="Y31" s="36"/>
       <c r="Z31" s="36"/>
       <c r="AA31" s="36"/>
-      <c r="AB31" s="36"/>
-    </row>
-    <row r="32" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="35"/>
-      <c r="B32" s="39"/>
-      <c r="C32" s="37"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="36"/>
       <c r="D32" s="37"/>
       <c r="E32" s="37"/>
       <c r="F32" s="37"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="37"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
       <c r="I32" s="37"/>
       <c r="J32" s="37"/>
       <c r="K32" s="37"/>
@@ -2456,29 +2368,28 @@
       <c r="P32" s="37"/>
       <c r="Q32" s="37"/>
       <c r="R32" s="37"/>
-      <c r="S32" s="37"/>
-      <c r="T32" s="36"/>
-      <c r="U32" s="36"/>
-      <c r="V32" s="36"/>
-      <c r="W32" s="36"/>
-      <c r="X32" s="36"/>
-      <c r="Y32" s="36"/>
-      <c r="Z32" s="36"/>
-      <c r="AA32" s="36"/>
-      <c r="AB32" s="36"/>
-    </row>
-    <row r="33" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="39"/>
-      <c r="B33" s="39"/>
-      <c r="C33" s="37"/>
+      <c r="S32" s="38"/>
+      <c r="T32" s="38"/>
+      <c r="U32" s="38"/>
+      <c r="V32" s="38"/>
+      <c r="W32" s="38"/>
+      <c r="X32" s="38"/>
+      <c r="Y32" s="38"/>
+      <c r="Z32" s="38"/>
+      <c r="AA32" s="38"/>
+    </row>
+    <row r="33" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="35"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="36"/>
       <c r="D33" s="37"/>
       <c r="E33" s="37"/>
       <c r="F33" s="37"/>
       <c r="G33" s="37"/>
-      <c r="H33" s="37"/>
+      <c r="H33" s="36"/>
       <c r="I33" s="37"/>
       <c r="J33" s="37"/>
-      <c r="K33" s="37"/>
+      <c r="K33" s="36"/>
       <c r="L33" s="37"/>
       <c r="M33" s="37"/>
       <c r="N33" s="37"/>
@@ -2486,7 +2397,7 @@
       <c r="P33" s="37"/>
       <c r="Q33" s="37"/>
       <c r="R33" s="37"/>
-      <c r="S33" s="37"/>
+      <c r="S33" s="36"/>
       <c r="T33" s="36"/>
       <c r="U33" s="36"/>
       <c r="V33" s="36"/>
@@ -2495,20 +2406,19 @@
       <c r="Y33" s="36"/>
       <c r="Z33" s="36"/>
       <c r="AA33" s="36"/>
-      <c r="AB33" s="36"/>
-    </row>
-    <row r="34" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="35"/>
       <c r="B34" s="35"/>
       <c r="C34" s="36"/>
-      <c r="D34" s="36"/>
+      <c r="D34" s="37"/>
       <c r="E34" s="37"/>
-      <c r="F34" s="37"/>
+      <c r="F34" s="36"/>
       <c r="G34" s="37"/>
       <c r="H34" s="36"/>
-      <c r="I34" s="36"/>
+      <c r="I34" s="37"/>
       <c r="J34" s="37"/>
-      <c r="K34" s="37"/>
+      <c r="K34" s="36"/>
       <c r="L34" s="37"/>
       <c r="M34" s="37"/>
       <c r="N34" s="37"/>
@@ -2516,37 +2426,36 @@
       <c r="P34" s="37"/>
       <c r="Q34" s="37"/>
       <c r="R34" s="37"/>
-      <c r="S34" s="37"/>
-      <c r="T34" s="38"/>
-      <c r="U34" s="38"/>
-      <c r="V34" s="38"/>
-      <c r="W34" s="38"/>
-      <c r="X34" s="38"/>
-      <c r="Y34" s="38"/>
-      <c r="Z34" s="38"/>
-      <c r="AA34" s="38"/>
-      <c r="AB34" s="38"/>
-    </row>
-    <row r="35" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S34" s="36"/>
+      <c r="T34" s="36"/>
+      <c r="U34" s="36"/>
+      <c r="V34" s="36"/>
+      <c r="W34" s="36"/>
+      <c r="X34" s="36"/>
+      <c r="Y34" s="36"/>
+      <c r="Z34" s="36"/>
+      <c r="AA34" s="36"/>
+    </row>
+    <row r="35" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="35"/>
       <c r="B35" s="35"/>
       <c r="C35" s="36"/>
-      <c r="D35" s="36"/>
+      <c r="D35" s="37"/>
       <c r="E35" s="37"/>
-      <c r="F35" s="37"/>
+      <c r="F35" s="36"/>
       <c r="G35" s="37"/>
       <c r="H35" s="37"/>
-      <c r="I35" s="36"/>
+      <c r="I35" s="37"/>
       <c r="J35" s="37"/>
       <c r="K35" s="37"/>
-      <c r="L35" s="36"/>
+      <c r="L35" s="37"/>
       <c r="M35" s="37"/>
       <c r="N35" s="37"/>
       <c r="O35" s="37"/>
       <c r="P35" s="37"/>
       <c r="Q35" s="37"/>
       <c r="R35" s="37"/>
-      <c r="S35" s="37"/>
+      <c r="S35" s="36"/>
       <c r="T35" s="36"/>
       <c r="U35" s="36"/>
       <c r="V35" s="36"/>
@@ -2555,28 +2464,27 @@
       <c r="Y35" s="36"/>
       <c r="Z35" s="36"/>
       <c r="AA35" s="36"/>
-      <c r="AB35" s="36"/>
-    </row>
-    <row r="36" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="35"/>
       <c r="B36" s="35"/>
       <c r="C36" s="36"/>
-      <c r="D36" s="36"/>
+      <c r="D36" s="37"/>
       <c r="E36" s="37"/>
-      <c r="F36" s="37"/>
+      <c r="F36" s="36"/>
       <c r="G36" s="36"/>
       <c r="H36" s="37"/>
-      <c r="I36" s="36"/>
+      <c r="I36" s="37"/>
       <c r="J36" s="37"/>
       <c r="K36" s="37"/>
-      <c r="L36" s="36"/>
+      <c r="L36" s="37"/>
       <c r="M36" s="37"/>
       <c r="N36" s="37"/>
       <c r="O36" s="37"/>
       <c r="P36" s="37"/>
       <c r="Q36" s="37"/>
       <c r="R36" s="37"/>
-      <c r="S36" s="37"/>
+      <c r="S36" s="36"/>
       <c r="T36" s="36"/>
       <c r="U36" s="36"/>
       <c r="V36" s="36"/>
@@ -2585,16 +2493,15 @@
       <c r="Y36" s="36"/>
       <c r="Z36" s="36"/>
       <c r="AA36" s="36"/>
-      <c r="AB36" s="36"/>
-    </row>
-    <row r="37" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="35"/>
       <c r="B37" s="35"/>
       <c r="C37" s="36"/>
-      <c r="D37" s="36"/>
+      <c r="D37" s="37"/>
       <c r="E37" s="37"/>
-      <c r="F37" s="37"/>
-      <c r="G37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="37"/>
       <c r="H37" s="37"/>
       <c r="I37" s="37"/>
       <c r="J37" s="37"/>
@@ -2606,7 +2513,7 @@
       <c r="P37" s="37"/>
       <c r="Q37" s="37"/>
       <c r="R37" s="37"/>
-      <c r="S37" s="37"/>
+      <c r="S37" s="36"/>
       <c r="T37" s="36"/>
       <c r="U37" s="36"/>
       <c r="V37" s="36"/>
@@ -2615,17 +2522,16 @@
       <c r="Y37" s="36"/>
       <c r="Z37" s="36"/>
       <c r="AA37" s="36"/>
-      <c r="AB37" s="36"/>
-    </row>
-    <row r="38" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="35"/>
       <c r="B38" s="35"/>
       <c r="C38" s="36"/>
-      <c r="D38" s="36"/>
+      <c r="D38" s="37"/>
       <c r="E38" s="37"/>
       <c r="F38" s="37"/>
-      <c r="G38" s="36"/>
-      <c r="H38" s="36"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="37"/>
       <c r="I38" s="37"/>
       <c r="J38" s="37"/>
       <c r="K38" s="37"/>
@@ -2636,7 +2542,7 @@
       <c r="P38" s="37"/>
       <c r="Q38" s="37"/>
       <c r="R38" s="37"/>
-      <c r="S38" s="37"/>
+      <c r="S38" s="36"/>
       <c r="T38" s="36"/>
       <c r="U38" s="36"/>
       <c r="V38" s="36"/>
@@ -2645,16 +2551,15 @@
       <c r="Y38" s="36"/>
       <c r="Z38" s="36"/>
       <c r="AA38" s="36"/>
-      <c r="AB38" s="36"/>
-    </row>
-    <row r="39" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="35"/>
       <c r="B39" s="35"/>
       <c r="C39" s="36"/>
-      <c r="D39" s="36"/>
+      <c r="D39" s="37"/>
       <c r="E39" s="37"/>
       <c r="F39" s="37"/>
-      <c r="G39" s="36"/>
+      <c r="G39" s="37"/>
       <c r="H39" s="37"/>
       <c r="I39" s="37"/>
       <c r="J39" s="37"/>
@@ -2666,7 +2571,7 @@
       <c r="P39" s="37"/>
       <c r="Q39" s="37"/>
       <c r="R39" s="37"/>
-      <c r="S39" s="37"/>
+      <c r="S39" s="36"/>
       <c r="T39" s="36"/>
       <c r="U39" s="36"/>
       <c r="V39" s="36"/>
@@ -2675,13 +2580,12 @@
       <c r="Y39" s="36"/>
       <c r="Z39" s="36"/>
       <c r="AA39" s="36"/>
-      <c r="AB39" s="36"/>
-    </row>
-    <row r="40" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="35"/>
       <c r="B40" s="35"/>
       <c r="C40" s="36"/>
-      <c r="D40" s="36"/>
+      <c r="D40" s="37"/>
       <c r="E40" s="37"/>
       <c r="F40" s="37"/>
       <c r="G40" s="37"/>
@@ -2696,7 +2600,7 @@
       <c r="P40" s="37"/>
       <c r="Q40" s="37"/>
       <c r="R40" s="37"/>
-      <c r="S40" s="37"/>
+      <c r="S40" s="36"/>
       <c r="T40" s="36"/>
       <c r="U40" s="36"/>
       <c r="V40" s="36"/>
@@ -2705,13 +2609,12 @@
       <c r="Y40" s="36"/>
       <c r="Z40" s="36"/>
       <c r="AA40" s="36"/>
-      <c r="AB40" s="36"/>
-    </row>
-    <row r="41" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="35"/>
       <c r="B41" s="35"/>
       <c r="C41" s="36"/>
-      <c r="D41" s="36"/>
+      <c r="D41" s="37"/>
       <c r="E41" s="37"/>
       <c r="F41" s="37"/>
       <c r="G41" s="37"/>
@@ -2726,7 +2629,7 @@
       <c r="P41" s="37"/>
       <c r="Q41" s="37"/>
       <c r="R41" s="37"/>
-      <c r="S41" s="37"/>
+      <c r="S41" s="36"/>
       <c r="T41" s="36"/>
       <c r="U41" s="36"/>
       <c r="V41" s="36"/>
@@ -2735,13 +2638,12 @@
       <c r="Y41" s="36"/>
       <c r="Z41" s="36"/>
       <c r="AA41" s="36"/>
-      <c r="AB41" s="36"/>
-    </row>
-    <row r="42" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="35"/>
       <c r="B42" s="35"/>
       <c r="C42" s="36"/>
-      <c r="D42" s="36"/>
+      <c r="D42" s="37"/>
       <c r="E42" s="37"/>
       <c r="F42" s="37"/>
       <c r="G42" s="37"/>
@@ -2756,7 +2658,7 @@
       <c r="P42" s="37"/>
       <c r="Q42" s="37"/>
       <c r="R42" s="37"/>
-      <c r="S42" s="37"/>
+      <c r="S42" s="36"/>
       <c r="T42" s="36"/>
       <c r="U42" s="36"/>
       <c r="V42" s="36"/>
@@ -2765,13 +2667,12 @@
       <c r="Y42" s="36"/>
       <c r="Z42" s="36"/>
       <c r="AA42" s="36"/>
-      <c r="AB42" s="36"/>
-    </row>
-    <row r="43" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="35"/>
       <c r="B43" s="35"/>
       <c r="C43" s="36"/>
-      <c r="D43" s="36"/>
+      <c r="D43" s="37"/>
       <c r="E43" s="37"/>
       <c r="F43" s="37"/>
       <c r="G43" s="37"/>
@@ -2786,7 +2687,7 @@
       <c r="P43" s="37"/>
       <c r="Q43" s="37"/>
       <c r="R43" s="37"/>
-      <c r="S43" s="37"/>
+      <c r="S43" s="36"/>
       <c r="T43" s="36"/>
       <c r="U43" s="36"/>
       <c r="V43" s="36"/>
@@ -2795,13 +2696,12 @@
       <c r="Y43" s="36"/>
       <c r="Z43" s="36"/>
       <c r="AA43" s="36"/>
-      <c r="AB43" s="36"/>
-    </row>
-    <row r="44" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="35"/>
       <c r="B44" s="35"/>
       <c r="C44" s="36"/>
-      <c r="D44" s="36"/>
+      <c r="D44" s="37"/>
       <c r="E44" s="37"/>
       <c r="F44" s="37"/>
       <c r="G44" s="37"/>
@@ -2816,7 +2716,7 @@
       <c r="P44" s="37"/>
       <c r="Q44" s="37"/>
       <c r="R44" s="37"/>
-      <c r="S44" s="37"/>
+      <c r="S44" s="36"/>
       <c r="T44" s="36"/>
       <c r="U44" s="36"/>
       <c r="V44" s="36"/>
@@ -2825,13 +2725,12 @@
       <c r="Y44" s="36"/>
       <c r="Z44" s="36"/>
       <c r="AA44" s="36"/>
-      <c r="AB44" s="36"/>
-    </row>
-    <row r="45" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="35"/>
       <c r="B45" s="35"/>
       <c r="C45" s="36"/>
-      <c r="D45" s="36"/>
+      <c r="D45" s="37"/>
       <c r="E45" s="37"/>
       <c r="F45" s="37"/>
       <c r="G45" s="37"/>
@@ -2846,7 +2745,7 @@
       <c r="P45" s="37"/>
       <c r="Q45" s="37"/>
       <c r="R45" s="37"/>
-      <c r="S45" s="37"/>
+      <c r="S45" s="36"/>
       <c r="T45" s="36"/>
       <c r="U45" s="36"/>
       <c r="V45" s="36"/>
@@ -2855,13 +2754,12 @@
       <c r="Y45" s="36"/>
       <c r="Z45" s="36"/>
       <c r="AA45" s="36"/>
-      <c r="AB45" s="36"/>
-    </row>
-    <row r="46" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="35"/>
-      <c r="B46" s="35"/>
-      <c r="C46" s="36"/>
-      <c r="D46" s="36"/>
+      <c r="B46" s="39"/>
+      <c r="C46" s="37"/>
+      <c r="D46" s="37"/>
       <c r="E46" s="37"/>
       <c r="F46" s="37"/>
       <c r="G46" s="37"/>
@@ -2876,7 +2774,7 @@
       <c r="P46" s="37"/>
       <c r="Q46" s="37"/>
       <c r="R46" s="37"/>
-      <c r="S46" s="37"/>
+      <c r="S46" s="36"/>
       <c r="T46" s="36"/>
       <c r="U46" s="36"/>
       <c r="V46" s="36"/>
@@ -2885,13 +2783,12 @@
       <c r="Y46" s="36"/>
       <c r="Z46" s="36"/>
       <c r="AA46" s="36"/>
-      <c r="AB46" s="36"/>
-    </row>
-    <row r="47" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="35"/>
-      <c r="B47" s="35"/>
-      <c r="C47" s="36"/>
-      <c r="D47" s="36"/>
+      <c r="B47" s="39"/>
+      <c r="C47" s="37"/>
+      <c r="D47" s="37"/>
       <c r="E47" s="37"/>
       <c r="F47" s="37"/>
       <c r="G47" s="37"/>
@@ -2906,7 +2803,7 @@
       <c r="P47" s="37"/>
       <c r="Q47" s="37"/>
       <c r="R47" s="37"/>
-      <c r="S47" s="37"/>
+      <c r="S47" s="36"/>
       <c r="T47" s="36"/>
       <c r="U47" s="36"/>
       <c r="V47" s="36"/>
@@ -2915,9 +2812,8 @@
       <c r="Y47" s="36"/>
       <c r="Z47" s="36"/>
       <c r="AA47" s="36"/>
-      <c r="AB47" s="36"/>
-    </row>
-    <row r="48" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="35"/>
       <c r="B48" s="39"/>
       <c r="C48" s="37"/>
@@ -2936,26 +2832,25 @@
       <c r="P48" s="37"/>
       <c r="Q48" s="37"/>
       <c r="R48" s="37"/>
-      <c r="S48" s="37"/>
-      <c r="T48" s="36"/>
-      <c r="U48" s="36"/>
-      <c r="V48" s="36"/>
-      <c r="W48" s="36"/>
-      <c r="X48" s="36"/>
-      <c r="Y48" s="36"/>
-      <c r="Z48" s="36"/>
-      <c r="AA48" s="36"/>
-      <c r="AB48" s="36"/>
-    </row>
-    <row r="49" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S48" s="40"/>
+      <c r="T48" s="40"/>
+      <c r="U48" s="40"/>
+      <c r="V48" s="40"/>
+      <c r="W48" s="40"/>
+      <c r="X48" s="40"/>
+      <c r="Y48" s="40"/>
+      <c r="Z48" s="40"/>
+      <c r="AA48" s="40"/>
+    </row>
+    <row r="49" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="35"/>
-      <c r="B49" s="39"/>
-      <c r="C49" s="37"/>
+      <c r="B49" s="35"/>
+      <c r="C49" s="36"/>
       <c r="D49" s="37"/>
       <c r="E49" s="37"/>
       <c r="F49" s="37"/>
-      <c r="G49" s="37"/>
-      <c r="H49" s="37"/>
+      <c r="G49" s="36"/>
+      <c r="H49" s="36"/>
       <c r="I49" s="37"/>
       <c r="J49" s="37"/>
       <c r="K49" s="37"/>
@@ -2966,21 +2861,20 @@
       <c r="P49" s="37"/>
       <c r="Q49" s="37"/>
       <c r="R49" s="37"/>
-      <c r="S49" s="37"/>
-      <c r="T49" s="36"/>
-      <c r="U49" s="36"/>
-      <c r="V49" s="36"/>
-      <c r="W49" s="36"/>
-      <c r="X49" s="36"/>
-      <c r="Y49" s="36"/>
-      <c r="Z49" s="36"/>
-      <c r="AA49" s="36"/>
-      <c r="AB49" s="36"/>
-    </row>
-    <row r="50" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S49" s="40"/>
+      <c r="T49" s="40"/>
+      <c r="U49" s="40"/>
+      <c r="V49" s="40"/>
+      <c r="W49" s="40"/>
+      <c r="X49" s="40"/>
+      <c r="Y49" s="40"/>
+      <c r="Z49" s="40"/>
+      <c r="AA49" s="40"/>
+    </row>
+    <row r="50" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="35"/>
-      <c r="B50" s="39"/>
-      <c r="C50" s="37"/>
+      <c r="B50" s="35"/>
+      <c r="C50" s="36"/>
       <c r="D50" s="37"/>
       <c r="E50" s="37"/>
       <c r="F50" s="37"/>
@@ -2996,27 +2890,26 @@
       <c r="P50" s="37"/>
       <c r="Q50" s="37"/>
       <c r="R50" s="37"/>
-      <c r="S50" s="37"/>
-      <c r="T50" s="40"/>
-      <c r="U50" s="40"/>
-      <c r="V50" s="40"/>
-      <c r="W50" s="40"/>
-      <c r="X50" s="40"/>
-      <c r="Y50" s="40"/>
-      <c r="Z50" s="40"/>
-      <c r="AA50" s="40"/>
-      <c r="AB50" s="40"/>
-    </row>
-    <row r="51" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S50" s="36"/>
+      <c r="T50" s="36"/>
+      <c r="U50" s="36"/>
+      <c r="V50" s="36"/>
+      <c r="W50" s="36"/>
+      <c r="X50" s="36"/>
+      <c r="Y50" s="36"/>
+      <c r="Z50" s="36"/>
+      <c r="AA50" s="36"/>
+    </row>
+    <row r="51" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="35"/>
       <c r="B51" s="35"/>
       <c r="C51" s="36"/>
-      <c r="D51" s="36"/>
+      <c r="D51" s="37"/>
       <c r="E51" s="37"/>
       <c r="F51" s="37"/>
       <c r="G51" s="37"/>
-      <c r="H51" s="36"/>
-      <c r="I51" s="36"/>
+      <c r="H51" s="37"/>
+      <c r="I51" s="37"/>
       <c r="J51" s="37"/>
       <c r="K51" s="37"/>
       <c r="L51" s="37"/>
@@ -3026,22 +2919,21 @@
       <c r="P51" s="37"/>
       <c r="Q51" s="37"/>
       <c r="R51" s="37"/>
-      <c r="S51" s="37"/>
-      <c r="T51" s="40"/>
-      <c r="U51" s="40"/>
-      <c r="V51" s="40"/>
-      <c r="W51" s="40"/>
-      <c r="X51" s="40"/>
-      <c r="Y51" s="40"/>
-      <c r="Z51" s="40"/>
-      <c r="AA51" s="40"/>
-      <c r="AB51" s="40"/>
-    </row>
-    <row r="52" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S51" s="36"/>
+      <c r="T51" s="36"/>
+      <c r="U51" s="36"/>
+      <c r="V51" s="36"/>
+      <c r="W51" s="36"/>
+      <c r="X51" s="36"/>
+      <c r="Y51" s="36"/>
+      <c r="Z51" s="36"/>
+      <c r="AA51" s="36"/>
+    </row>
+    <row r="52" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="35"/>
       <c r="B52" s="35"/>
       <c r="C52" s="36"/>
-      <c r="D52" s="36"/>
+      <c r="D52" s="37"/>
       <c r="E52" s="37"/>
       <c r="F52" s="37"/>
       <c r="G52" s="37"/>
@@ -3056,7 +2948,7 @@
       <c r="P52" s="37"/>
       <c r="Q52" s="37"/>
       <c r="R52" s="37"/>
-      <c r="S52" s="37"/>
+      <c r="S52" s="36"/>
       <c r="T52" s="36"/>
       <c r="U52" s="36"/>
       <c r="V52" s="36"/>
@@ -3065,13 +2957,12 @@
       <c r="Y52" s="36"/>
       <c r="Z52" s="36"/>
       <c r="AA52" s="36"/>
-      <c r="AB52" s="36"/>
-    </row>
-    <row r="53" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="35"/>
       <c r="B53" s="35"/>
       <c r="C53" s="36"/>
-      <c r="D53" s="36"/>
+      <c r="D53" s="37"/>
       <c r="E53" s="37"/>
       <c r="F53" s="37"/>
       <c r="G53" s="37"/>
@@ -3086,7 +2977,7 @@
       <c r="P53" s="37"/>
       <c r="Q53" s="37"/>
       <c r="R53" s="37"/>
-      <c r="S53" s="37"/>
+      <c r="S53" s="36"/>
       <c r="T53" s="36"/>
       <c r="U53" s="36"/>
       <c r="V53" s="36"/>
@@ -3095,13 +2986,12 @@
       <c r="Y53" s="36"/>
       <c r="Z53" s="36"/>
       <c r="AA53" s="36"/>
-      <c r="AB53" s="36"/>
-    </row>
-    <row r="54" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="35"/>
-      <c r="B54" s="35"/>
-      <c r="C54" s="36"/>
-      <c r="D54" s="36"/>
+      <c r="B54" s="39"/>
+      <c r="C54" s="37"/>
+      <c r="D54" s="37"/>
       <c r="E54" s="37"/>
       <c r="F54" s="37"/>
       <c r="G54" s="37"/>
@@ -3116,7 +3006,7 @@
       <c r="P54" s="37"/>
       <c r="Q54" s="37"/>
       <c r="R54" s="37"/>
-      <c r="S54" s="37"/>
+      <c r="S54" s="36"/>
       <c r="T54" s="36"/>
       <c r="U54" s="36"/>
       <c r="V54" s="36"/>
@@ -3125,13 +3015,12 @@
       <c r="Y54" s="36"/>
       <c r="Z54" s="36"/>
       <c r="AA54" s="36"/>
-      <c r="AB54" s="36"/>
-    </row>
-    <row r="55" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="35"/>
       <c r="B55" s="35"/>
       <c r="C55" s="36"/>
-      <c r="D55" s="36"/>
+      <c r="D55" s="37"/>
       <c r="E55" s="37"/>
       <c r="F55" s="37"/>
       <c r="G55" s="37"/>
@@ -3146,21 +3035,20 @@
       <c r="P55" s="37"/>
       <c r="Q55" s="37"/>
       <c r="R55" s="37"/>
-      <c r="S55" s="37"/>
-      <c r="T55" s="36"/>
-      <c r="U55" s="36"/>
-      <c r="V55" s="36"/>
-      <c r="W55" s="36"/>
-      <c r="X55" s="36"/>
-      <c r="Y55" s="36"/>
-      <c r="Z55" s="36"/>
-      <c r="AA55" s="36"/>
-      <c r="AB55" s="36"/>
-    </row>
-    <row r="56" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S55" s="40"/>
+      <c r="T55" s="40"/>
+      <c r="U55" s="40"/>
+      <c r="V55" s="40"/>
+      <c r="W55" s="40"/>
+      <c r="X55" s="40"/>
+      <c r="Y55" s="40"/>
+      <c r="Z55" s="40"/>
+      <c r="AA55" s="40"/>
+    </row>
+    <row r="56" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="35"/>
-      <c r="B56" s="39"/>
-      <c r="C56" s="37"/>
+      <c r="B56" s="35"/>
+      <c r="C56" s="36"/>
       <c r="D56" s="37"/>
       <c r="E56" s="37"/>
       <c r="F56" s="37"/>
@@ -3176,26 +3064,25 @@
       <c r="P56" s="37"/>
       <c r="Q56" s="37"/>
       <c r="R56" s="37"/>
-      <c r="S56" s="37"/>
-      <c r="T56" s="36"/>
-      <c r="U56" s="36"/>
-      <c r="V56" s="36"/>
-      <c r="W56" s="36"/>
-      <c r="X56" s="36"/>
-      <c r="Y56" s="36"/>
-      <c r="Z56" s="36"/>
-      <c r="AA56" s="36"/>
-      <c r="AB56" s="36"/>
-    </row>
-    <row r="57" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S56" s="40"/>
+      <c r="T56" s="40"/>
+      <c r="U56" s="40"/>
+      <c r="V56" s="40"/>
+      <c r="W56" s="40"/>
+      <c r="X56" s="40"/>
+      <c r="Y56" s="40"/>
+      <c r="Z56" s="40"/>
+      <c r="AA56" s="40"/>
+    </row>
+    <row r="57" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="35"/>
       <c r="B57" s="35"/>
       <c r="C57" s="36"/>
-      <c r="D57" s="36"/>
+      <c r="D57" s="37"/>
       <c r="E57" s="37"/>
       <c r="F57" s="37"/>
-      <c r="G57" s="37"/>
-      <c r="H57" s="37"/>
+      <c r="G57" s="36"/>
+      <c r="H57" s="36"/>
       <c r="I57" s="37"/>
       <c r="J57" s="37"/>
       <c r="K57" s="37"/>
@@ -3206,7 +3093,7 @@
       <c r="P57" s="37"/>
       <c r="Q57" s="37"/>
       <c r="R57" s="37"/>
-      <c r="S57" s="37"/>
+      <c r="S57" s="40"/>
       <c r="T57" s="40"/>
       <c r="U57" s="40"/>
       <c r="V57" s="40"/>
@@ -3215,13 +3102,12 @@
       <c r="Y57" s="40"/>
       <c r="Z57" s="40"/>
       <c r="AA57" s="40"/>
-      <c r="AB57" s="40"/>
-    </row>
-    <row r="58" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="35"/>
       <c r="B58" s="35"/>
       <c r="C58" s="36"/>
-      <c r="D58" s="36"/>
+      <c r="D58" s="37"/>
       <c r="E58" s="37"/>
       <c r="F58" s="37"/>
       <c r="G58" s="37"/>
@@ -3236,7 +3122,7 @@
       <c r="P58" s="37"/>
       <c r="Q58" s="37"/>
       <c r="R58" s="37"/>
-      <c r="S58" s="37"/>
+      <c r="S58" s="40"/>
       <c r="T58" s="40"/>
       <c r="U58" s="40"/>
       <c r="V58" s="40"/>
@@ -3245,18 +3131,17 @@
       <c r="Y58" s="40"/>
       <c r="Z58" s="40"/>
       <c r="AA58" s="40"/>
-      <c r="AB58" s="40"/>
-    </row>
-    <row r="59" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="35"/>
       <c r="B59" s="35"/>
       <c r="C59" s="36"/>
-      <c r="D59" s="36"/>
+      <c r="D59" s="37"/>
       <c r="E59" s="37"/>
       <c r="F59" s="37"/>
       <c r="G59" s="37"/>
-      <c r="H59" s="36"/>
-      <c r="I59" s="36"/>
+      <c r="H59" s="37"/>
+      <c r="I59" s="37"/>
       <c r="J59" s="37"/>
       <c r="K59" s="37"/>
       <c r="L59" s="37"/>
@@ -3266,7 +3151,7 @@
       <c r="P59" s="37"/>
       <c r="Q59" s="37"/>
       <c r="R59" s="37"/>
-      <c r="S59" s="37"/>
+      <c r="S59" s="40"/>
       <c r="T59" s="40"/>
       <c r="U59" s="40"/>
       <c r="V59" s="40"/>
@@ -3275,13 +3160,12 @@
       <c r="Y59" s="40"/>
       <c r="Z59" s="40"/>
       <c r="AA59" s="40"/>
-      <c r="AB59" s="40"/>
-    </row>
-    <row r="60" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="35"/>
       <c r="B60" s="35"/>
       <c r="C60" s="36"/>
-      <c r="D60" s="36"/>
+      <c r="D60" s="37"/>
       <c r="E60" s="37"/>
       <c r="F60" s="37"/>
       <c r="G60" s="37"/>
@@ -3296,7 +3180,7 @@
       <c r="P60" s="37"/>
       <c r="Q60" s="37"/>
       <c r="R60" s="37"/>
-      <c r="S60" s="37"/>
+      <c r="S60" s="40"/>
       <c r="T60" s="40"/>
       <c r="U60" s="40"/>
       <c r="V60" s="40"/>
@@ -3305,13 +3189,12 @@
       <c r="Y60" s="40"/>
       <c r="Z60" s="40"/>
       <c r="AA60" s="40"/>
-      <c r="AB60" s="40"/>
-    </row>
-    <row r="61" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="35"/>
       <c r="B61" s="35"/>
       <c r="C61" s="36"/>
-      <c r="D61" s="36"/>
+      <c r="D61" s="37"/>
       <c r="E61" s="37"/>
       <c r="F61" s="37"/>
       <c r="G61" s="37"/>
@@ -3326,7 +3209,7 @@
       <c r="P61" s="37"/>
       <c r="Q61" s="37"/>
       <c r="R61" s="37"/>
-      <c r="S61" s="37"/>
+      <c r="S61" s="40"/>
       <c r="T61" s="40"/>
       <c r="U61" s="40"/>
       <c r="V61" s="40"/>
@@ -3335,20 +3218,19 @@
       <c r="Y61" s="40"/>
       <c r="Z61" s="40"/>
       <c r="AA61" s="40"/>
-      <c r="AB61" s="40"/>
-    </row>
-    <row r="62" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="35"/>
       <c r="B62" s="35"/>
       <c r="C62" s="36"/>
-      <c r="D62" s="36"/>
+      <c r="D62" s="37"/>
       <c r="E62" s="37"/>
       <c r="F62" s="37"/>
-      <c r="G62" s="37"/>
-      <c r="H62" s="37"/>
+      <c r="G62" s="36"/>
+      <c r="H62" s="36"/>
       <c r="I62" s="37"/>
       <c r="J62" s="37"/>
-      <c r="K62" s="37"/>
+      <c r="K62" s="36"/>
       <c r="L62" s="37"/>
       <c r="M62" s="37"/>
       <c r="N62" s="37"/>
@@ -3356,7 +3238,7 @@
       <c r="P62" s="37"/>
       <c r="Q62" s="37"/>
       <c r="R62" s="37"/>
-      <c r="S62" s="37"/>
+      <c r="S62" s="40"/>
       <c r="T62" s="40"/>
       <c r="U62" s="40"/>
       <c r="V62" s="40"/>
@@ -3365,20 +3247,19 @@
       <c r="Y62" s="40"/>
       <c r="Z62" s="40"/>
       <c r="AA62" s="40"/>
-      <c r="AB62" s="40"/>
-    </row>
-    <row r="63" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="35"/>
       <c r="B63" s="35"/>
       <c r="C63" s="36"/>
-      <c r="D63" s="36"/>
+      <c r="D63" s="37"/>
       <c r="E63" s="37"/>
-      <c r="F63" s="37"/>
-      <c r="G63" s="37"/>
-      <c r="H63" s="37"/>
+      <c r="F63" s="41"/>
+      <c r="G63" s="36"/>
+      <c r="H63" s="36"/>
       <c r="I63" s="37"/>
       <c r="J63" s="37"/>
-      <c r="K63" s="37"/>
+      <c r="K63" s="36"/>
       <c r="L63" s="37"/>
       <c r="M63" s="37"/>
       <c r="N63" s="37"/>
@@ -3386,7 +3267,7 @@
       <c r="P63" s="37"/>
       <c r="Q63" s="37"/>
       <c r="R63" s="37"/>
-      <c r="S63" s="37"/>
+      <c r="S63" s="40"/>
       <c r="T63" s="40"/>
       <c r="U63" s="40"/>
       <c r="V63" s="40"/>
@@ -3395,28 +3276,27 @@
       <c r="Y63" s="40"/>
       <c r="Z63" s="40"/>
       <c r="AA63" s="40"/>
-      <c r="AB63" s="40"/>
-    </row>
-    <row r="64" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="35"/>
       <c r="B64" s="35"/>
       <c r="C64" s="36"/>
-      <c r="D64" s="36"/>
+      <c r="D64" s="37"/>
       <c r="E64" s="37"/>
       <c r="F64" s="37"/>
       <c r="G64" s="37"/>
-      <c r="H64" s="36"/>
-      <c r="I64" s="36"/>
+      <c r="H64" s="37"/>
+      <c r="I64" s="37"/>
       <c r="J64" s="37"/>
       <c r="K64" s="37"/>
-      <c r="L64" s="36"/>
+      <c r="L64" s="37"/>
       <c r="M64" s="37"/>
       <c r="N64" s="37"/>
       <c r="O64" s="37"/>
       <c r="P64" s="37"/>
       <c r="Q64" s="37"/>
       <c r="R64" s="37"/>
-      <c r="S64" s="37"/>
+      <c r="S64" s="40"/>
       <c r="T64" s="40"/>
       <c r="U64" s="40"/>
       <c r="V64" s="40"/>
@@ -3425,71 +3305,10 @@
       <c r="Y64" s="40"/>
       <c r="Z64" s="40"/>
       <c r="AA64" s="40"/>
-      <c r="AB64" s="40"/>
-    </row>
-    <row r="65" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="35"/>
-      <c r="B65" s="35"/>
-      <c r="C65" s="36"/>
-      <c r="D65" s="36"/>
-      <c r="E65" s="37"/>
-      <c r="F65" s="37"/>
-      <c r="G65" s="41"/>
-      <c r="H65" s="36"/>
-      <c r="I65" s="36"/>
-      <c r="J65" s="37"/>
-      <c r="K65" s="37"/>
-      <c r="L65" s="36"/>
-      <c r="M65" s="37"/>
-      <c r="N65" s="37"/>
-      <c r="O65" s="37"/>
-      <c r="P65" s="37"/>
-      <c r="Q65" s="37"/>
-      <c r="R65" s="37"/>
-      <c r="S65" s="37"/>
-      <c r="T65" s="40"/>
-      <c r="U65" s="40"/>
-      <c r="V65" s="40"/>
-      <c r="W65" s="40"/>
-      <c r="X65" s="40"/>
-      <c r="Y65" s="40"/>
-      <c r="Z65" s="40"/>
-      <c r="AA65" s="40"/>
-      <c r="AB65" s="40"/>
-    </row>
-    <row r="66" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="35"/>
-      <c r="B66" s="35"/>
-      <c r="C66" s="36"/>
-      <c r="D66" s="36"/>
-      <c r="E66" s="37"/>
-      <c r="F66" s="37"/>
-      <c r="G66" s="37"/>
-      <c r="H66" s="37"/>
-      <c r="I66" s="37"/>
-      <c r="J66" s="37"/>
-      <c r="K66" s="37"/>
-      <c r="L66" s="37"/>
-      <c r="M66" s="37"/>
-      <c r="N66" s="37"/>
-      <c r="O66" s="37"/>
-      <c r="P66" s="37"/>
-      <c r="Q66" s="37"/>
-      <c r="R66" s="37"/>
-      <c r="S66" s="37"/>
-      <c r="T66" s="40"/>
-      <c r="U66" s="40"/>
-      <c r="V66" s="40"/>
-      <c r="W66" s="40"/>
-      <c r="X66" s="40"/>
-      <c r="Y66" s="40"/>
-      <c r="Z66" s="40"/>
-      <c r="AA66" s="40"/>
-      <c r="AB66" s="40"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="E2:F66">
+    <dataValidation type="list" allowBlank="1" sqref="D2:E12 D14:E64 E13:F13">
       <formula1>"yes,no"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3544,10 +3363,10 @@
         <v>11</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3555,10 +3374,10 @@
         <v>11</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3566,21 +3385,21 @@
         <v>11</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>51</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -3659,7 +3478,7 @@
       </c>
       <c r="C2" s="9">
         <f ca="1">NOW()</f>
-        <v>44121.642152546294</v>
+        <v>44121.653998379632</v>
       </c>
       <c r="D2" s="10"/>
       <c r="E2" s="10" t="s">

--- a/forms/app/covid_rdt.xlsx
+++ b/forms/app/covid_rdt.xlsx
@@ -3478,7 +3478,7 @@
       </c>
       <c r="C2" s="9">
         <f ca="1">NOW()</f>
-        <v>44121.653998379632</v>
+        <v>44121.724676967591</v>
       </c>
       <c r="D2" s="10"/>
       <c r="E2" s="10" t="s">
